--- a/Manuscript/Supplementary_Data/tables_website/carbon_emissions_uncertainty.xlsx
+++ b/Manuscript/Supplementary_Data/tables_website/carbon_emissions_uncertainty.xlsx
@@ -903,7 +903,7 @@
   </sheetPr>
   <dimension ref="A1:N358"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -913,7 +913,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="6.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="4.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="8" style="0" width="8.38"/>
@@ -991,22 +991,22 @@
         <v>2</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1029,10 +1029,10 @@
         <v>6</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>22</v>
@@ -1073,7 +1073,7 @@
         <v>6</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>24</v>
@@ -1117,28 +1117,28 @@
         <v>414</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>1584</v>
+        <v>1580</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1205,13 +1205,13 @@
         <v>414</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="J7" s="0" t="n">
         <v>2198</v>
@@ -1264,7 +1264,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>15</v>
@@ -1381,28 +1381,28 @@
         <v>5171</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>3202</v>
+        <v>3212</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>6327</v>
+        <v>6336</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>9628</v>
+        <v>9650</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>12943</v>
+        <v>12974</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>16315</v>
+        <v>16384</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>19905</v>
+        <v>19987</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>23719</v>
+        <v>23789</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>27786</v>
+        <v>27848</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1425,25 +1425,25 @@
         <v>5171</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>5116</v>
+        <v>5121</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>10425</v>
+        <v>10443</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>15831</v>
+        <v>15887</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>21704</v>
+        <v>21772</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>28210</v>
+        <v>28253</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>35399</v>
+        <v>35390</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>43155</v>
+        <v>43139</v>
       </c>
       <c r="N12" s="0" t="n">
         <v>51612</v>
@@ -1469,22 +1469,22 @@
         <v>5171</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>7114</v>
+        <v>7120</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>14539</v>
+        <v>14578</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>22626</v>
+        <v>22683</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>31956</v>
+        <v>31961</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>42459</v>
+        <v>42429</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>54270</v>
+        <v>54245</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>65187</v>
@@ -1513,28 +1513,28 @@
         <v>181646</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>117446</v>
+        <v>117305</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>234896</v>
+        <v>234791</v>
       </c>
       <c r="I14" s="0" t="n">
-        <v>354036</v>
+        <v>353926</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>474417</v>
+        <v>474357</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>597039</v>
+        <v>596901</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>721986</v>
+        <v>721869</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>850155</v>
+        <v>850074</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>981282</v>
+        <v>981205</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1557,28 +1557,28 @@
         <v>181646</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>187470</v>
+        <v>187320</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>377039</v>
+        <v>376947</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>570871</v>
+        <v>570738</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>770731</v>
+        <v>770651</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>978558</v>
+        <v>978482</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>1193885</v>
+        <v>1193782</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1414127</v>
+        <v>1413959</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>1637130</v>
+        <v>1636911</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1601,28 +1601,28 @@
         <v>181646</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>257505</v>
+        <v>257385</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>521248</v>
+        <v>521162</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>795320</v>
+        <v>795252</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1083999</v>
+        <v>1083917</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>1384620</v>
+        <v>1384499</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>1691076</v>
+        <v>1690853</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>2002186</v>
+        <v>2001963</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>2317833</v>
+        <v>2317706</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1645,28 +1645,28 @@
         <v>50337</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>40918</v>
+        <v>40675</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>84499</v>
+        <v>84179</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>130899</v>
+        <v>130660</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>181651</v>
+        <v>181565</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>236436</v>
+        <v>236484</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>296745</v>
+        <v>296832</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>359968</v>
+        <v>360030</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>424394</v>
+        <v>424438</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1689,28 +1689,28 @@
         <v>50337</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>47979</v>
+        <v>47698</v>
       </c>
       <c r="H18" s="0" t="n">
-        <v>99602</v>
+        <v>99336</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>159929</v>
+        <v>159742</v>
       </c>
       <c r="J18" s="0" t="n">
-        <v>231087</v>
+        <v>231144</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>310121</v>
+        <v>310207</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>392736</v>
+        <v>392808</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>484176</v>
+        <v>484200</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>587541</v>
+        <v>587555</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1733,28 +1733,28 @@
         <v>50337</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>55065</v>
+        <v>54788</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>118023</v>
+        <v>117809</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>198775</v>
+        <v>198746</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>294077</v>
+        <v>294179</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>402277</v>
+        <v>402340</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>528535</v>
+        <v>528558</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>680931</v>
+        <v>680890</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>918002</v>
+        <v>918172</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1780,13 +1780,13 @@
         <v>131</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="J20" s="0" t="n">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="K20" s="0" t="n">
         <v>2274</v>
@@ -1821,13 +1821,13 @@
         <v>198</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H21" s="0" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>2274</v>
@@ -1868,7 +1868,7 @@
         <v>293</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1205</v>
+        <v>1202</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>2274</v>
@@ -1909,28 +1909,28 @@
         <v>8977</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>5404</v>
+        <v>5363</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>12037</v>
+        <v>12108</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>19493</v>
+        <v>19656</v>
       </c>
       <c r="J23" s="0" t="n">
-        <v>28807</v>
+        <v>28963</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>40216</v>
+        <v>40321</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>55542</v>
+        <v>55575</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>74612</v>
+        <v>74533</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>97119</v>
+        <v>96881</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1953,28 +1953,28 @@
         <v>8977</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>7101</v>
+        <v>7102</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>15982</v>
+        <v>16108</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>28946</v>
+        <v>29100</v>
       </c>
       <c r="J24" s="0" t="n">
-        <v>48503</v>
+        <v>48575</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>75407</v>
+        <v>75322</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>109810</v>
+        <v>109491</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>159732</v>
+        <v>159325</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>236789</v>
+        <v>236407</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1997,28 +1997,28 @@
         <v>8977</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>8875</v>
+        <v>8889</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>21852</v>
+        <v>22008</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>45076</v>
+        <v>45169</v>
       </c>
       <c r="J25" s="0" t="n">
-        <v>80968</v>
+        <v>80856</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>136254</v>
+        <v>135864</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>229976</v>
+        <v>229594</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>381268</v>
+        <v>380961</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>682413</v>
+        <v>682117</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2041,28 +2041,28 @@
         <v>152772</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>123136</v>
+        <v>123315</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>240592</v>
+        <v>240531</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>353210</v>
+        <v>353323</v>
       </c>
       <c r="J26" s="0" t="n">
-        <v>467372</v>
+        <v>467361</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>583183</v>
+        <v>582987</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>703398</v>
+        <v>702986</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>826993</v>
+        <v>826697</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>952939</v>
+        <v>952951</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2085,28 +2085,28 @@
         <v>152772</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>171304</v>
+        <v>171605</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>329488</v>
+        <v>329653</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>490380</v>
+        <v>490387</v>
       </c>
       <c r="J27" s="0" t="n">
-        <v>657838</v>
+        <v>657517</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>832298</v>
+        <v>832067</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>1011882</v>
+        <v>1011920</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>1200698</v>
+        <v>1200667</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>1403208</v>
+        <v>1403355</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2129,28 +2129,28 @@
         <v>152772</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>216860</v>
+        <v>216952</v>
       </c>
       <c r="H28" s="0" t="n">
-        <v>420966</v>
+        <v>421117</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>635061</v>
+        <v>634847</v>
       </c>
       <c r="J28" s="0" t="n">
-        <v>861304</v>
+        <v>861189</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>1100940</v>
+        <v>1100935</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>1359404</v>
+        <v>1359553</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>1649072</v>
+        <v>1649419</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>2024809</v>
+        <v>2024842</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2173,28 +2173,28 @@
         <v>11480</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>6297</v>
+        <v>6296</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>13591</v>
+        <v>13587</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>21855</v>
+        <v>21842</v>
       </c>
       <c r="J29" s="0" t="n">
-        <v>31753</v>
+        <v>31735</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>43224</v>
+        <v>43209</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>57593</v>
+        <v>57558</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>74110</v>
+        <v>74061</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>92404</v>
+        <v>92340</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2217,22 +2217,22 @@
         <v>11480</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>10130</v>
+        <v>10135</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>22623</v>
+        <v>22617</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>39140</v>
+        <v>39138</v>
       </c>
       <c r="J30" s="0" t="n">
-        <v>61035</v>
+        <v>61016</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>88131</v>
+        <v>88097</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>120906</v>
+        <v>120846</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>133895</v>
@@ -2261,16 +2261,16 @@
         <v>11480</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>14297</v>
+        <v>14294</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>33951</v>
+        <v>33948</v>
       </c>
       <c r="I31" s="0" t="n">
-        <v>62772</v>
+        <v>62760</v>
       </c>
       <c r="J31" s="0" t="n">
-        <v>101424</v>
+        <v>101396</v>
       </c>
       <c r="K31" s="0" t="n">
         <v>133895</v>
@@ -2308,7 +2308,7 @@
         <v>229</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>812</v>
@@ -2349,10 +2349,10 @@
         <v>471</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="H33" s="0" t="n">
-        <v>1093</v>
+        <v>1100</v>
       </c>
       <c r="I33" s="0" t="n">
         <v>2008</v>
@@ -2393,7 +2393,7 @@
         <v>471</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>2008</v>
@@ -2437,25 +2437,25 @@
         <v>1479</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>1332</v>
+        <v>1305</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>1954</v>
+        <v>1926</v>
       </c>
       <c r="J35" s="0" t="n">
-        <v>3238</v>
+        <v>3211</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>5269</v>
+        <v>5247</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>9344</v>
+        <v>9316</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>15815</v>
+        <v>15788</v>
       </c>
       <c r="N35" s="0" t="n">
         <v>20789</v>
@@ -2481,16 +2481,16 @@
         <v>1479</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1818</v>
+        <v>1789</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>3510</v>
+        <v>3485</v>
       </c>
       <c r="I36" s="0" t="n">
-        <v>7111</v>
+        <v>7092</v>
       </c>
       <c r="J36" s="0" t="n">
-        <v>15629</v>
+        <v>15613</v>
       </c>
       <c r="K36" s="0" t="n">
         <v>20789</v>
@@ -2525,13 +2525,13 @@
         <v>1479</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>2900</v>
+        <v>2876</v>
       </c>
       <c r="H37" s="0" t="n">
-        <v>6946</v>
+        <v>6929</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>19529</v>
+        <v>19526</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>20789</v>
@@ -2569,13 +2569,13 @@
         <v>2710</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>5100</v>
+        <v>5098</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>5422</v>
@@ -2613,10 +2613,10 @@
         <v>2710</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>2715</v>
+        <v>2709</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>4867</v>
+        <v>4866</v>
       </c>
       <c r="I39" s="0" t="n">
         <v>5422</v>
@@ -2657,7 +2657,7 @@
         <v>2710</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>3382</v>
+        <v>3377</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>5422</v>
@@ -2701,19 +2701,19 @@
         <v>55106</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>40316</v>
+        <v>40222</v>
       </c>
       <c r="H41" s="0" t="n">
-        <v>75952</v>
+        <v>75907</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>113718</v>
+        <v>113703</v>
       </c>
       <c r="J41" s="0" t="n">
-        <v>155091</v>
+        <v>155060</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>210981</v>
+        <v>211032</v>
       </c>
       <c r="L41" s="0" t="n">
         <v>258249</v>
@@ -2745,13 +2745,13 @@
         <v>55106</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>60320</v>
+        <v>60302</v>
       </c>
       <c r="H42" s="0" t="n">
-        <v>118699</v>
+        <v>118680</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>197097</v>
+        <v>196917</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>258249</v>
@@ -2789,10 +2789,10 @@
         <v>55106</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>80539</v>
+        <v>80486</v>
       </c>
       <c r="H43" s="0" t="n">
-        <v>167594</v>
+        <v>167544</v>
       </c>
       <c r="I43" s="0" t="n">
         <v>258249</v>
@@ -2833,28 +2833,28 @@
         <v>234932</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>175883</v>
+        <v>176054</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>354496</v>
+        <v>354671</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>536827</v>
+        <v>536994</v>
       </c>
       <c r="J44" s="0" t="n">
-        <v>728204</v>
+        <v>728380</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>927880</v>
+        <v>928100</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>1141474</v>
+        <v>1141755</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>1369955</v>
+        <v>1370213</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>1613007</v>
+        <v>1613392</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2877,28 +2877,28 @@
         <v>234932</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>225154</v>
+        <v>225299</v>
       </c>
       <c r="H45" s="0" t="n">
-        <v>454720</v>
+        <v>454899</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>697906</v>
+        <v>698038</v>
       </c>
       <c r="J45" s="0" t="n">
-        <v>958184</v>
+        <v>958326</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>1241444</v>
+        <v>1241555</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>1549360</v>
+        <v>1549491</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>1886935</v>
+        <v>1887156</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>2257095</v>
+        <v>2257217</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,25 +2921,25 @@
         <v>234932</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>274507</v>
+        <v>274598</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>559463</v>
+        <v>559576</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>869896</v>
+        <v>869952</v>
       </c>
       <c r="J46" s="0" t="n">
-        <v>1212045</v>
+        <v>1212115</v>
       </c>
       <c r="K46" s="0" t="n">
         <v>1596782</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>2031448</v>
+        <v>2031482</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>2523457</v>
+        <v>2523348</v>
       </c>
       <c r="N46" s="0" t="n">
         <v>2820755</v>
@@ -2968,19 +2968,19 @@
         <v>1900</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>4115</v>
+        <v>4114</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>6241</v>
+        <v>6240</v>
       </c>
       <c r="J47" s="0" t="n">
-        <v>8850</v>
+        <v>8849</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>11861</v>
+        <v>11859</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>15939</v>
+        <v>15936</v>
       </c>
       <c r="M47" s="0" t="n">
         <v>19432</v>
@@ -3018,7 +3018,7 @@
         <v>9349</v>
       </c>
       <c r="J48" s="0" t="n">
-        <v>14947</v>
+        <v>14945</v>
       </c>
       <c r="K48" s="0" t="n">
         <v>19432</v>
@@ -3059,7 +3059,7 @@
         <v>7440</v>
       </c>
       <c r="I49" s="0" t="n">
-        <v>14464</v>
+        <v>14463</v>
       </c>
       <c r="J49" s="0" t="n">
         <v>19432</v>
@@ -3097,13 +3097,13 @@
         <v>14454</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>10230</v>
+        <v>10219</v>
       </c>
       <c r="H50" s="0" t="n">
-        <v>20623</v>
+        <v>20603</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>33598</v>
+        <v>33581</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>42484</v>
@@ -3141,10 +3141,10 @@
         <v>14454</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>15358</v>
+        <v>15342</v>
       </c>
       <c r="H51" s="0" t="n">
-        <v>34020</v>
+        <v>34019</v>
       </c>
       <c r="I51" s="0" t="n">
         <v>42484</v>
@@ -3185,7 +3185,7 @@
         <v>14454</v>
       </c>
       <c r="G52" s="0" t="n">
-        <v>20894</v>
+        <v>20885</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>42484</v>
@@ -3229,28 +3229,28 @@
         <v>440506</v>
       </c>
       <c r="G53" s="0" t="n">
-        <v>430763</v>
+        <v>430674</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>838991</v>
+        <v>838030</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>1248784</v>
+        <v>1246985</v>
       </c>
       <c r="J53" s="0" t="n">
-        <v>1678739</v>
+        <v>1677384</v>
       </c>
       <c r="K53" s="0" t="n">
-        <v>2126847</v>
+        <v>2127532</v>
       </c>
       <c r="L53" s="0" t="n">
-        <v>2588706</v>
+        <v>2588729</v>
       </c>
       <c r="M53" s="0" t="n">
-        <v>3066132</v>
+        <v>3064887</v>
       </c>
       <c r="N53" s="0" t="n">
-        <v>3556896</v>
+        <v>3556099</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3273,28 +3273,28 @@
         <v>440506</v>
       </c>
       <c r="G54" s="0" t="n">
-        <v>513768</v>
+        <v>513552</v>
       </c>
       <c r="H54" s="0" t="n">
-        <v>1002976</v>
+        <v>1001331</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>1509073</v>
+        <v>1507445</v>
       </c>
       <c r="J54" s="0" t="n">
-        <v>2049799</v>
+        <v>2050416</v>
       </c>
       <c r="K54" s="0" t="n">
-        <v>2611386</v>
+        <v>2611441</v>
       </c>
       <c r="L54" s="0" t="n">
-        <v>3195021</v>
+        <v>3193698</v>
       </c>
       <c r="M54" s="0" t="n">
-        <v>3805921</v>
+        <v>3805928</v>
       </c>
       <c r="N54" s="0" t="n">
-        <v>4451625</v>
+        <v>4451637</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,28 +3317,28 @@
         <v>440506</v>
       </c>
       <c r="G55" s="0" t="n">
-        <v>595863</v>
+        <v>595512</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>1170285</v>
+        <v>1168323</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>1785149</v>
+        <v>1784386</v>
       </c>
       <c r="J55" s="0" t="n">
-        <v>2438563</v>
+        <v>2438846</v>
       </c>
       <c r="K55" s="0" t="n">
-        <v>3127495</v>
+        <v>3126149</v>
       </c>
       <c r="L55" s="0" t="n">
-        <v>3861403</v>
+        <v>3861350</v>
       </c>
       <c r="M55" s="0" t="n">
-        <v>4655578</v>
+        <v>4655435</v>
       </c>
       <c r="N55" s="0" t="n">
-        <v>5573940</v>
+        <v>5574743</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3361,16 +3361,16 @@
         <v>65</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J56" s="0" t="n">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="K56" s="0" t="n">
         <v>894</v>
@@ -3405,10 +3405,10 @@
         <v>65</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="I57" s="0" t="n">
         <v>894</v>
@@ -3449,10 +3449,10 @@
         <v>65</v>
       </c>
       <c r="G58" s="0" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="I58" s="0" t="n">
         <v>894</v>
@@ -3493,28 +3493,28 @@
         <v>15177</v>
       </c>
       <c r="G59" s="0" t="n">
-        <v>11891</v>
+        <v>11863</v>
       </c>
       <c r="H59" s="0" t="n">
-        <v>22306</v>
+        <v>22258</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>32594</v>
+        <v>32527</v>
       </c>
       <c r="J59" s="0" t="n">
-        <v>43892</v>
+        <v>43815</v>
       </c>
       <c r="K59" s="0" t="n">
-        <v>56481</v>
+        <v>56387</v>
       </c>
       <c r="L59" s="0" t="n">
-        <v>71754</v>
+        <v>71666</v>
       </c>
       <c r="M59" s="0" t="n">
-        <v>89631</v>
+        <v>89563</v>
       </c>
       <c r="N59" s="0" t="n">
-        <v>111171</v>
+        <v>111129</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3537,22 +3537,22 @@
         <v>15177</v>
       </c>
       <c r="G60" s="0" t="n">
-        <v>15556</v>
+        <v>15514</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>29441</v>
+        <v>29382</v>
       </c>
       <c r="I60" s="0" t="n">
-        <v>45641</v>
+        <v>45563</v>
       </c>
       <c r="J60" s="0" t="n">
-        <v>66139</v>
+        <v>66053</v>
       </c>
       <c r="K60" s="0" t="n">
-        <v>91828</v>
+        <v>91762</v>
       </c>
       <c r="L60" s="0" t="n">
-        <v>126140</v>
+        <v>126108</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>162365</v>
@@ -3581,19 +3581,19 @@
         <v>15177</v>
       </c>
       <c r="G61" s="0" t="n">
-        <v>19160</v>
+        <v>19110</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>37994</v>
+        <v>37921</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>63387</v>
+        <v>63303</v>
       </c>
       <c r="J61" s="0" t="n">
-        <v>97802</v>
+        <v>97752</v>
       </c>
       <c r="K61" s="0" t="n">
-        <v>150974</v>
+        <v>151005</v>
       </c>
       <c r="L61" s="0" t="n">
         <v>162365</v>
@@ -3628,16 +3628,16 @@
         <v>163</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I62" s="0" t="n">
         <v>437</v>
       </c>
       <c r="J62" s="0" t="n">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="K62" s="0" t="n">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="L62" s="0" t="n">
         <v>3003</v>
@@ -3669,13 +3669,13 @@
         <v>246</v>
       </c>
       <c r="G63" s="0" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>1875</v>
+        <v>1874</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>3003</v>
@@ -3713,10 +3713,10 @@
         <v>246</v>
       </c>
       <c r="G64" s="0" t="n">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>3003</v>
@@ -3757,13 +3757,13 @@
         <v>1127</v>
       </c>
       <c r="G65" s="0" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>1343</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>1911</v>
+        <v>1910</v>
       </c>
       <c r="J65" s="0" t="n">
         <v>2249</v>
@@ -3801,10 +3801,10 @@
         <v>1127</v>
       </c>
       <c r="G66" s="0" t="n">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="I66" s="0" t="n">
         <v>2249</v>
@@ -3845,7 +3845,7 @@
         <v>1127</v>
       </c>
       <c r="G67" s="0" t="n">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>2249</v>
@@ -3892,25 +3892,25 @@
         <v>723</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>1700</v>
+        <v>1695</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>2842</v>
+        <v>2834</v>
       </c>
       <c r="J68" s="0" t="n">
-        <v>4994</v>
+        <v>4984</v>
       </c>
       <c r="K68" s="0" t="n">
-        <v>8603</v>
+        <v>8584</v>
       </c>
       <c r="L68" s="0" t="n">
-        <v>15178</v>
+        <v>15158</v>
       </c>
       <c r="M68" s="0" t="n">
-        <v>24310</v>
+        <v>24304</v>
       </c>
       <c r="N68" s="0" t="n">
-        <v>35563</v>
+        <v>35558</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,19 +3933,19 @@
         <v>2327</v>
       </c>
       <c r="G69" s="0" t="n">
-        <v>1969</v>
+        <v>1966</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>4765</v>
+        <v>4756</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>10847</v>
+        <v>10834</v>
       </c>
       <c r="J69" s="0" t="n">
-        <v>23061</v>
+        <v>23062</v>
       </c>
       <c r="K69" s="0" t="n">
-        <v>42107</v>
+        <v>42119</v>
       </c>
       <c r="L69" s="0" t="n">
         <v>52564</v>
@@ -3977,13 +3977,13 @@
         <v>2327</v>
       </c>
       <c r="G70" s="0" t="n">
-        <v>3458</v>
+        <v>3446</v>
       </c>
       <c r="H70" s="0" t="n">
-        <v>10240</v>
+        <v>10225</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>27334</v>
+        <v>27340</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>52564</v>
@@ -4153,28 +4153,28 @@
         <v>5716</v>
       </c>
       <c r="G74" s="0" t="n">
-        <v>2846</v>
+        <v>2798</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>5879</v>
+        <v>5831</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>9162</v>
+        <v>9117</v>
       </c>
       <c r="J74" s="0" t="n">
-        <v>13352</v>
+        <v>13318</v>
       </c>
       <c r="K74" s="0" t="n">
         <v>18703</v>
       </c>
       <c r="L74" s="0" t="n">
-        <v>26208</v>
+        <v>26253</v>
       </c>
       <c r="M74" s="0" t="n">
-        <v>35518</v>
+        <v>35616</v>
       </c>
       <c r="N74" s="0" t="n">
-        <v>46313</v>
+        <v>46415</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4197,22 +4197,22 @@
         <v>5716</v>
       </c>
       <c r="G75" s="0" t="n">
-        <v>6332</v>
+        <v>6287</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>13862</v>
+        <v>13832</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>24776</v>
+        <v>24827</v>
       </c>
       <c r="J75" s="0" t="n">
-        <v>40917</v>
+        <v>41039</v>
       </c>
       <c r="K75" s="0" t="n">
-        <v>62517</v>
+        <v>62591</v>
       </c>
       <c r="L75" s="0" t="n">
-        <v>90138</v>
+        <v>90113</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>103004</v>
@@ -4241,16 +4241,16 @@
         <v>5716</v>
       </c>
       <c r="G76" s="0" t="n">
-        <v>10157</v>
+        <v>10117</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>24792</v>
+        <v>24844</v>
       </c>
       <c r="I76" s="0" t="n">
-        <v>49085</v>
+        <v>49205</v>
       </c>
       <c r="J76" s="0" t="n">
-        <v>85323</v>
+        <v>85317</v>
       </c>
       <c r="K76" s="0" t="n">
         <v>103004</v>
@@ -4285,28 +4285,28 @@
         <v>123697</v>
       </c>
       <c r="G77" s="0" t="n">
-        <v>106414</v>
+        <v>106109</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>197710</v>
+        <v>197059</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>290181</v>
+        <v>289299</v>
       </c>
       <c r="J77" s="0" t="n">
-        <v>392673</v>
+        <v>391566</v>
       </c>
       <c r="K77" s="0" t="n">
-        <v>506571</v>
+        <v>505943</v>
       </c>
       <c r="L77" s="0" t="n">
-        <v>632204</v>
+        <v>631858</v>
       </c>
       <c r="M77" s="0" t="n">
-        <v>765634</v>
+        <v>765554</v>
       </c>
       <c r="N77" s="0" t="n">
-        <v>903798</v>
+        <v>903801</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4329,28 +4329,28 @@
         <v>123697</v>
       </c>
       <c r="G78" s="0" t="n">
-        <v>130200</v>
+        <v>129735</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>243408</v>
+        <v>242614</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>369450</v>
+        <v>368250</v>
       </c>
       <c r="J78" s="0" t="n">
-        <v>517295</v>
+        <v>516676</v>
       </c>
       <c r="K78" s="0" t="n">
-        <v>683382</v>
+        <v>683183</v>
       </c>
       <c r="L78" s="0" t="n">
-        <v>860095</v>
+        <v>860056</v>
       </c>
       <c r="M78" s="0" t="n">
-        <v>1051495</v>
+        <v>1051362</v>
       </c>
       <c r="N78" s="0" t="n">
-        <v>1262847</v>
+        <v>1262379</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,22 +4373,22 @@
         <v>123697</v>
       </c>
       <c r="G79" s="0" t="n">
-        <v>153257</v>
+        <v>152759</v>
       </c>
       <c r="H79" s="0" t="n">
-        <v>293037</v>
+        <v>292118</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>462123</v>
+        <v>461303</v>
       </c>
       <c r="J79" s="0" t="n">
-        <v>662203</v>
+        <v>661916</v>
       </c>
       <c r="K79" s="0" t="n">
-        <v>886085</v>
+        <v>885989</v>
       </c>
       <c r="L79" s="0" t="n">
-        <v>1137851</v>
+        <v>1137825</v>
       </c>
       <c r="M79" s="0" t="n">
         <v>1341636</v>
@@ -4417,28 +4417,28 @@
         <v>63099</v>
       </c>
       <c r="G80" s="0" t="n">
-        <v>17253</v>
+        <v>17257</v>
       </c>
       <c r="H80" s="0" t="n">
-        <v>34099</v>
+        <v>34022</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>50106</v>
+        <v>50008</v>
       </c>
       <c r="J80" s="0" t="n">
-        <v>67568</v>
+        <v>67445</v>
       </c>
       <c r="K80" s="0" t="n">
-        <v>86290</v>
+        <v>86176</v>
       </c>
       <c r="L80" s="0" t="n">
-        <v>107926</v>
+        <v>107841</v>
       </c>
       <c r="M80" s="0" t="n">
-        <v>131565</v>
+        <v>131484</v>
       </c>
       <c r="N80" s="0" t="n">
-        <v>156157</v>
+        <v>156065</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4461,28 +4461,28 @@
         <v>63099</v>
       </c>
       <c r="G81" s="0" t="n">
-        <v>57840</v>
+        <v>57704</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>112005</v>
+        <v>111937</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>169895</v>
+        <v>169864</v>
       </c>
       <c r="J81" s="0" t="n">
-        <v>234019</v>
+        <v>234177</v>
       </c>
       <c r="K81" s="0" t="n">
-        <v>304648</v>
+        <v>304543</v>
       </c>
       <c r="L81" s="0" t="n">
-        <v>381007</v>
+        <v>380940</v>
       </c>
       <c r="M81" s="0" t="n">
-        <v>465638</v>
+        <v>465432</v>
       </c>
       <c r="N81" s="0" t="n">
-        <v>566222</v>
+        <v>565917</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4505,28 +4505,28 @@
         <v>63099</v>
       </c>
       <c r="G82" s="0" t="n">
-        <v>96569</v>
+        <v>96456</v>
       </c>
       <c r="H82" s="0" t="n">
-        <v>191545</v>
+        <v>191612</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>299361</v>
+        <v>299249</v>
       </c>
       <c r="J82" s="0" t="n">
-        <v>421940</v>
+        <v>421875</v>
       </c>
       <c r="K82" s="0" t="n">
-        <v>559840</v>
+        <v>559540</v>
       </c>
       <c r="L82" s="0" t="n">
-        <v>726889</v>
+        <v>726776</v>
       </c>
       <c r="M82" s="0" t="n">
-        <v>929681</v>
+        <v>929636</v>
       </c>
       <c r="N82" s="0" t="n">
-        <v>1225998</v>
+        <v>1225721</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4549,28 +4549,28 @@
         <v>11018</v>
       </c>
       <c r="G83" s="0" t="n">
-        <v>9457</v>
+        <v>9427</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>18556</v>
+        <v>18510</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>27620</v>
+        <v>27567</v>
       </c>
       <c r="J83" s="0" t="n">
-        <v>37781</v>
+        <v>37725</v>
       </c>
       <c r="K83" s="0" t="n">
-        <v>49277</v>
+        <v>49223</v>
       </c>
       <c r="L83" s="0" t="n">
-        <v>63519</v>
+        <v>63469</v>
       </c>
       <c r="M83" s="0" t="n">
-        <v>79854</v>
+        <v>79808</v>
       </c>
       <c r="N83" s="0" t="n">
-        <v>97844</v>
+        <v>97807</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4593,25 +4593,25 @@
         <v>11018</v>
       </c>
       <c r="G84" s="0" t="n">
-        <v>12150</v>
+        <v>12110</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>23923</v>
+        <v>23863</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>38236</v>
+        <v>38171</v>
       </c>
       <c r="J84" s="0" t="n">
-        <v>57038</v>
+        <v>56970</v>
       </c>
       <c r="K84" s="0" t="n">
-        <v>80263</v>
+        <v>80200</v>
       </c>
       <c r="L84" s="0" t="n">
-        <v>107230</v>
+        <v>107182</v>
       </c>
       <c r="M84" s="0" t="n">
-        <v>143516</v>
+        <v>143493</v>
       </c>
       <c r="N84" s="0" t="n">
         <v>164630</v>
@@ -4637,19 +4637,19 @@
         <v>11018</v>
       </c>
       <c r="G85" s="0" t="n">
-        <v>14843</v>
+        <v>14799</v>
       </c>
       <c r="H85" s="0" t="n">
-        <v>30846</v>
+        <v>30780</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>53853</v>
+        <v>53780</v>
       </c>
       <c r="J85" s="0" t="n">
-        <v>84551</v>
+        <v>84486</v>
       </c>
       <c r="K85" s="0" t="n">
-        <v>126138</v>
+        <v>126092</v>
       </c>
       <c r="L85" s="0" t="n">
         <v>164630</v>
@@ -4681,28 +4681,28 @@
         <v>6918</v>
       </c>
       <c r="G86" s="0" t="n">
-        <v>2560</v>
+        <v>2554</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>6287</v>
       </c>
       <c r="I86" s="0" t="n">
-        <v>10922</v>
+        <v>10918</v>
       </c>
       <c r="J86" s="0" t="n">
-        <v>17482</v>
+        <v>17477</v>
       </c>
       <c r="K86" s="0" t="n">
-        <v>26151</v>
+        <v>26114</v>
       </c>
       <c r="L86" s="0" t="n">
-        <v>38207</v>
+        <v>38123</v>
       </c>
       <c r="M86" s="0" t="n">
-        <v>52818</v>
+        <v>52704</v>
       </c>
       <c r="N86" s="0" t="n">
-        <v>69294</v>
+        <v>69169</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4725,28 +4725,28 @@
         <v>6918</v>
       </c>
       <c r="G87" s="0" t="n">
-        <v>4459</v>
+        <v>4455</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>11330</v>
+        <v>11324</v>
       </c>
       <c r="I87" s="0" t="n">
-        <v>22922</v>
+        <v>22893</v>
       </c>
       <c r="J87" s="0" t="n">
-        <v>41173</v>
+        <v>41073</v>
       </c>
       <c r="K87" s="0" t="n">
-        <v>65399</v>
+        <v>65273</v>
       </c>
       <c r="L87" s="0" t="n">
-        <v>94053</v>
+        <v>93963</v>
       </c>
       <c r="M87" s="0" t="n">
-        <v>132069</v>
+        <v>132033</v>
       </c>
       <c r="N87" s="0" t="n">
-        <v>183383</v>
+        <v>183411</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4769,22 +4769,22 @@
         <v>6918</v>
       </c>
       <c r="G88" s="0" t="n">
-        <v>6614</v>
+        <v>6616</v>
       </c>
       <c r="H88" s="0" t="n">
-        <v>18998</v>
+        <v>18988</v>
       </c>
       <c r="I88" s="0" t="n">
-        <v>42666</v>
+        <v>42569</v>
       </c>
       <c r="J88" s="0" t="n">
-        <v>77302</v>
+        <v>77188</v>
       </c>
       <c r="K88" s="0" t="n">
-        <v>124679</v>
+        <v>124642</v>
       </c>
       <c r="L88" s="0" t="n">
-        <v>192219</v>
+        <v>191139</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>212282</v>
@@ -4816,7 +4816,7 @@
         <v>73</v>
       </c>
       <c r="H89" s="0" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I89" s="0" t="n">
         <v>236</v>
@@ -4901,10 +4901,10 @@
         <v>171</v>
       </c>
       <c r="G91" s="0" t="n">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H91" s="0" t="n">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="I91" s="0" t="n">
         <v>1465</v>
@@ -4945,13 +4945,13 @@
         <v>17732</v>
       </c>
       <c r="G92" s="0" t="n">
-        <v>9833</v>
+        <v>9829</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>17895</v>
+        <v>17900</v>
       </c>
       <c r="I92" s="0" t="n">
-        <v>27315</v>
+        <v>27318</v>
       </c>
       <c r="J92" s="0" t="n">
         <v>33408</v>
@@ -4989,10 +4989,10 @@
         <v>17732</v>
       </c>
       <c r="G93" s="0" t="n">
-        <v>14997</v>
+        <v>14967</v>
       </c>
       <c r="H93" s="0" t="n">
-        <v>31208</v>
+        <v>31211</v>
       </c>
       <c r="I93" s="0" t="n">
         <v>33408</v>
@@ -5033,7 +5033,7 @@
         <v>17732</v>
       </c>
       <c r="G94" s="0" t="n">
-        <v>20569</v>
+        <v>20574</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>33408</v>
@@ -5074,31 +5074,31 @@
         <v>17</v>
       </c>
       <c r="F95" s="0" t="n">
-        <v>198344</v>
+        <v>198345</v>
       </c>
       <c r="G95" s="0" t="n">
-        <v>190398</v>
+        <v>190474</v>
       </c>
       <c r="H95" s="0" t="n">
-        <v>383130</v>
+        <v>383603</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>589832</v>
+        <v>591212</v>
       </c>
       <c r="J95" s="0" t="n">
-        <v>797956</v>
+        <v>798325</v>
       </c>
       <c r="K95" s="0" t="n">
-        <v>1007622</v>
+        <v>1006990</v>
       </c>
       <c r="L95" s="0" t="n">
-        <v>1231151</v>
+        <v>1230353</v>
       </c>
       <c r="M95" s="0" t="n">
-        <v>1471666</v>
+        <v>1470445</v>
       </c>
       <c r="N95" s="0" t="n">
-        <v>1725076</v>
+        <v>1724358</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5118,31 +5118,31 @@
         <v>18</v>
       </c>
       <c r="F96" s="0" t="n">
-        <v>198344</v>
+        <v>198345</v>
       </c>
       <c r="G96" s="0" t="n">
-        <v>216006</v>
+        <v>216069</v>
       </c>
       <c r="H96" s="0" t="n">
-        <v>438972</v>
+        <v>439888</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>675699</v>
+        <v>676744</v>
       </c>
       <c r="J96" s="0" t="n">
-        <v>912126</v>
+        <v>911950</v>
       </c>
       <c r="K96" s="0" t="n">
-        <v>1159230</v>
+        <v>1158513</v>
       </c>
       <c r="L96" s="0" t="n">
-        <v>1428364</v>
+        <v>1427151</v>
       </c>
       <c r="M96" s="0" t="n">
-        <v>1715146</v>
+        <v>1714392</v>
       </c>
       <c r="N96" s="0" t="n">
-        <v>2015924</v>
+        <v>2016035</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5162,31 +5162,31 @@
         <v>19</v>
       </c>
       <c r="F97" s="0" t="n">
-        <v>198344</v>
+        <v>198345</v>
       </c>
       <c r="G97" s="0" t="n">
-        <v>241850</v>
+        <v>241880</v>
       </c>
       <c r="H97" s="0" t="n">
-        <v>495852</v>
+        <v>497137</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>761469</v>
+        <v>762043</v>
       </c>
       <c r="J97" s="0" t="n">
-        <v>1028967</v>
+        <v>1028295</v>
       </c>
       <c r="K97" s="0" t="n">
-        <v>1319264</v>
+        <v>1318284</v>
       </c>
       <c r="L97" s="0" t="n">
-        <v>1634604</v>
+        <v>1633616</v>
       </c>
       <c r="M97" s="0" t="n">
-        <v>1968645</v>
+        <v>1968712</v>
       </c>
       <c r="N97" s="0" t="n">
-        <v>2315983</v>
+        <v>2316250</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5209,28 +5209,28 @@
         <v>5661</v>
       </c>
       <c r="G98" s="0" t="n">
-        <v>3991</v>
+        <v>3972</v>
       </c>
       <c r="H98" s="0" t="n">
-        <v>9149</v>
+        <v>9110</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>15129</v>
+        <v>15086</v>
       </c>
       <c r="J98" s="0" t="n">
-        <v>21661</v>
+        <v>21620</v>
       </c>
       <c r="K98" s="0" t="n">
-        <v>28606</v>
+        <v>28567</v>
       </c>
       <c r="L98" s="0" t="n">
-        <v>36023</v>
+        <v>35986</v>
       </c>
       <c r="M98" s="0" t="n">
-        <v>43999</v>
+        <v>43972</v>
       </c>
       <c r="N98" s="0" t="n">
-        <v>52627</v>
+        <v>52607</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5253,28 +5253,28 @@
         <v>5661</v>
       </c>
       <c r="G99" s="0" t="n">
-        <v>5296</v>
+        <v>5268</v>
       </c>
       <c r="H99" s="0" t="n">
-        <v>12317</v>
+        <v>12277</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>20439</v>
+        <v>20395</v>
       </c>
       <c r="J99" s="0" t="n">
-        <v>29250</v>
+        <v>29210</v>
       </c>
       <c r="K99" s="0" t="n">
-        <v>38839</v>
+        <v>38802</v>
       </c>
       <c r="L99" s="0" t="n">
-        <v>49396</v>
+        <v>49367</v>
       </c>
       <c r="M99" s="0" t="n">
-        <v>61055</v>
+        <v>61033</v>
       </c>
       <c r="N99" s="0" t="n">
-        <v>73931</v>
+        <v>73915</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,28 +5297,28 @@
         <v>5661</v>
       </c>
       <c r="G100" s="0" t="n">
-        <v>6681</v>
+        <v>6647</v>
       </c>
       <c r="H100" s="0" t="n">
-        <v>15696</v>
+        <v>15651</v>
       </c>
       <c r="I100" s="0" t="n">
-        <v>26017</v>
+        <v>25973</v>
       </c>
       <c r="J100" s="0" t="n">
-        <v>37411</v>
+        <v>37371</v>
       </c>
       <c r="K100" s="0" t="n">
-        <v>50180</v>
+        <v>50151</v>
       </c>
       <c r="L100" s="0" t="n">
-        <v>64592</v>
+        <v>64570</v>
       </c>
       <c r="M100" s="0" t="n">
-        <v>80806</v>
+        <v>80782</v>
       </c>
       <c r="N100" s="0" t="n">
-        <v>98929</v>
+        <v>99201</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5341,28 +5341,28 @@
         <v>3178</v>
       </c>
       <c r="G101" s="0" t="n">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="H101" s="0" t="n">
-        <v>5087</v>
+        <v>5084</v>
       </c>
       <c r="I101" s="0" t="n">
-        <v>8075</v>
+        <v>8068</v>
       </c>
       <c r="J101" s="0" t="n">
-        <v>11098</v>
+        <v>11094</v>
       </c>
       <c r="K101" s="0" t="n">
-        <v>14212</v>
+        <v>14207</v>
       </c>
       <c r="L101" s="0" t="n">
-        <v>17487</v>
+        <v>17480</v>
       </c>
       <c r="M101" s="0" t="n">
-        <v>20850</v>
+        <v>20841</v>
       </c>
       <c r="N101" s="0" t="n">
-        <v>24240</v>
+        <v>24230</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5388,22 +5388,22 @@
         <v>3612</v>
       </c>
       <c r="H102" s="0" t="n">
-        <v>8016</v>
+        <v>8010</v>
       </c>
       <c r="I102" s="0" t="n">
-        <v>12551</v>
+        <v>12548</v>
       </c>
       <c r="J102" s="0" t="n">
-        <v>17362</v>
+        <v>17353</v>
       </c>
       <c r="K102" s="0" t="n">
-        <v>22377</v>
+        <v>22370</v>
       </c>
       <c r="L102" s="0" t="n">
-        <v>27557</v>
+        <v>27551</v>
       </c>
       <c r="M102" s="0" t="n">
-        <v>33235</v>
+        <v>33230</v>
       </c>
       <c r="N102" s="0" t="n">
         <v>38487</v>
@@ -5429,19 +5429,19 @@
         <v>3178</v>
       </c>
       <c r="G103" s="0" t="n">
-        <v>5031</v>
+        <v>5028</v>
       </c>
       <c r="H103" s="0" t="n">
-        <v>10980</v>
+        <v>10978</v>
       </c>
       <c r="I103" s="0" t="n">
-        <v>17297</v>
+        <v>17290</v>
       </c>
       <c r="J103" s="0" t="n">
-        <v>23976</v>
+        <v>23969</v>
       </c>
       <c r="K103" s="0" t="n">
-        <v>31145</v>
+        <v>31143</v>
       </c>
       <c r="L103" s="0" t="n">
         <v>38487</v>
@@ -5517,28 +5517,28 @@
         <v>80</v>
       </c>
       <c r="G105" s="0" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>136</v>
       </c>
       <c r="I105" s="0" t="n">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="J105" s="0" t="n">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="K105" s="0" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L105" s="0" t="n">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M105" s="0" t="n">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="N105" s="0" t="n">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5561,28 +5561,28 @@
         <v>80</v>
       </c>
       <c r="G106" s="0" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H106" s="0" t="n">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I106" s="0" t="n">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="J106" s="0" t="n">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="K106" s="0" t="n">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="L106" s="0" t="n">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="M106" s="0" t="n">
-        <v>1002</v>
+        <v>1005</v>
       </c>
       <c r="N106" s="0" t="n">
-        <v>1167</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5605,28 +5605,28 @@
         <v>4050</v>
       </c>
       <c r="G107" s="0" t="n">
-        <v>2421</v>
+        <v>2374</v>
       </c>
       <c r="H107" s="0" t="n">
-        <v>5143</v>
+        <v>5110</v>
       </c>
       <c r="I107" s="0" t="n">
-        <v>8069</v>
+        <v>8043</v>
       </c>
       <c r="J107" s="0" t="n">
-        <v>11146</v>
+        <v>11134</v>
       </c>
       <c r="K107" s="0" t="n">
-        <v>14415</v>
+        <v>14420</v>
       </c>
       <c r="L107" s="0" t="n">
-        <v>17919</v>
+        <v>17939</v>
       </c>
       <c r="M107" s="0" t="n">
-        <v>21745</v>
+        <v>21769</v>
       </c>
       <c r="N107" s="0" t="n">
-        <v>26144</v>
+        <v>26166</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5649,19 +5649,19 @@
         <v>4050</v>
       </c>
       <c r="G108" s="0" t="n">
-        <v>4071</v>
+        <v>4025</v>
       </c>
       <c r="H108" s="0" t="n">
-        <v>8740</v>
+        <v>8717</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>13862</v>
+        <v>13867</v>
       </c>
       <c r="J108" s="0" t="n">
-        <v>19577</v>
+        <v>19603</v>
       </c>
       <c r="K108" s="0" t="n">
-        <v>26425</v>
+        <v>26452</v>
       </c>
       <c r="L108" s="0" t="n">
         <v>31512</v>
@@ -5693,16 +5693,16 @@
         <v>4050</v>
       </c>
       <c r="G109" s="0" t="n">
-        <v>5781</v>
+        <v>5743</v>
       </c>
       <c r="H109" s="0" t="n">
-        <v>12581</v>
+        <v>12580</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>20436</v>
+        <v>20465</v>
       </c>
       <c r="J109" s="0" t="n">
-        <v>30598</v>
+        <v>30615</v>
       </c>
       <c r="K109" s="0" t="n">
         <v>31512</v>
@@ -5734,31 +5734,31 @@
         <v>17</v>
       </c>
       <c r="F110" s="0" t="n">
-        <v>39671</v>
+        <v>39978</v>
       </c>
       <c r="G110" s="0" t="n">
-        <v>22467</v>
+        <v>21560</v>
       </c>
       <c r="H110" s="0" t="n">
-        <v>50340</v>
+        <v>49656</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>80793</v>
+        <v>80670</v>
       </c>
       <c r="J110" s="0" t="n">
-        <v>112548</v>
+        <v>113065</v>
       </c>
       <c r="K110" s="0" t="n">
-        <v>145754</v>
+        <v>147082</v>
       </c>
       <c r="L110" s="0" t="n">
-        <v>180685</v>
+        <v>182652</v>
       </c>
       <c r="M110" s="0" t="n">
-        <v>216847</v>
+        <v>219599</v>
       </c>
       <c r="N110" s="0" t="n">
-        <v>253852</v>
+        <v>257699</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5778,31 +5778,31 @@
         <v>18</v>
       </c>
       <c r="F111" s="0" t="n">
-        <v>39671</v>
+        <v>39978</v>
       </c>
       <c r="G111" s="0" t="n">
-        <v>33483</v>
+        <v>32520</v>
       </c>
       <c r="H111" s="0" t="n">
-        <v>74969</v>
+        <v>75064</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>119743</v>
+        <v>120865</v>
       </c>
       <c r="J111" s="0" t="n">
-        <v>167482</v>
+        <v>169873</v>
       </c>
       <c r="K111" s="0" t="n">
-        <v>218088</v>
+        <v>221765</v>
       </c>
       <c r="L111" s="0" t="n">
-        <v>270486</v>
+        <v>275901</v>
       </c>
       <c r="M111" s="0" t="n">
-        <v>324884</v>
+        <v>332191</v>
       </c>
       <c r="N111" s="0" t="n">
-        <v>381991</v>
+        <v>391081</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5822,31 +5822,31 @@
         <v>19</v>
       </c>
       <c r="F112" s="0" t="n">
-        <v>39671</v>
+        <v>39978</v>
       </c>
       <c r="G112" s="0" t="n">
-        <v>44968</v>
+        <v>44387</v>
       </c>
       <c r="H112" s="0" t="n">
-        <v>100559</v>
+        <v>101420</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>160948</v>
+        <v>163561</v>
       </c>
       <c r="J112" s="0" t="n">
-        <v>226167</v>
+        <v>230626</v>
       </c>
       <c r="K112" s="0" t="n">
-        <v>294461</v>
+        <v>301333</v>
       </c>
       <c r="L112" s="0" t="n">
-        <v>366595</v>
+        <v>376065</v>
       </c>
       <c r="M112" s="0" t="n">
-        <v>442578</v>
+        <v>454367</v>
       </c>
       <c r="N112" s="0" t="n">
-        <v>520049</v>
+        <v>534222</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,28 +5869,28 @@
         <v>467</v>
       </c>
       <c r="G113" s="0" t="n">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H113" s="0" t="n">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="J113" s="0" t="n">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="K113" s="0" t="n">
-        <v>1996</v>
+        <v>2001</v>
       </c>
       <c r="L113" s="0" t="n">
-        <v>2341</v>
+        <v>2346</v>
       </c>
       <c r="M113" s="0" t="n">
-        <v>2648</v>
+        <v>2652</v>
       </c>
       <c r="N113" s="0" t="n">
-        <v>2953</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5913,19 +5913,19 @@
         <v>467</v>
       </c>
       <c r="G114" s="0" t="n">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="H114" s="0" t="n">
-        <v>1135</v>
+        <v>1139</v>
       </c>
       <c r="I114" s="0" t="n">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="J114" s="0" t="n">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="K114" s="0" t="n">
-        <v>2647</v>
+        <v>2651</v>
       </c>
       <c r="L114" s="0" t="n">
         <v>3081</v>
@@ -5957,16 +5957,16 @@
         <v>467</v>
       </c>
       <c r="G115" s="0" t="n">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="H115" s="0" t="n">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="I115" s="0" t="n">
-        <v>2138</v>
+        <v>2144</v>
       </c>
       <c r="J115" s="0" t="n">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="K115" s="0" t="n">
         <v>3081</v>
@@ -6001,28 +6001,28 @@
         <v>3109</v>
       </c>
       <c r="G116" s="0" t="n">
-        <v>3780</v>
+        <v>3821</v>
       </c>
       <c r="H116" s="0" t="n">
-        <v>6246</v>
+        <v>6498</v>
       </c>
       <c r="I116" s="0" t="n">
-        <v>8786</v>
+        <v>9242</v>
       </c>
       <c r="J116" s="0" t="n">
-        <v>11508</v>
+        <v>11996</v>
       </c>
       <c r="K116" s="0" t="n">
-        <v>14350</v>
+        <v>14803</v>
       </c>
       <c r="L116" s="0" t="n">
-        <v>17313</v>
+        <v>17635</v>
       </c>
       <c r="M116" s="0" t="n">
-        <v>20403</v>
+        <v>20603</v>
       </c>
       <c r="N116" s="0" t="n">
-        <v>23590</v>
+        <v>23725</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6045,28 +6045,28 @@
         <v>3109</v>
       </c>
       <c r="G117" s="0" t="n">
-        <v>4299</v>
+        <v>4356</v>
       </c>
       <c r="H117" s="0" t="n">
-        <v>7204</v>
+        <v>7540</v>
       </c>
       <c r="I117" s="0" t="n">
-        <v>10324</v>
+        <v>10822</v>
       </c>
       <c r="J117" s="0" t="n">
-        <v>13674</v>
+        <v>14136</v>
       </c>
       <c r="K117" s="0" t="n">
-        <v>17182</v>
+        <v>17511</v>
       </c>
       <c r="L117" s="0" t="n">
-        <v>20869</v>
+        <v>21053</v>
       </c>
       <c r="M117" s="0" t="n">
-        <v>24686</v>
+        <v>24814</v>
       </c>
       <c r="N117" s="0" t="n">
-        <v>28634</v>
+        <v>28769</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6089,28 +6089,28 @@
         <v>3109</v>
       </c>
       <c r="G118" s="0" t="n">
-        <v>4756</v>
+        <v>4856</v>
       </c>
       <c r="H118" s="0" t="n">
-        <v>8179</v>
+        <v>8587</v>
       </c>
       <c r="I118" s="0" t="n">
-        <v>11915</v>
+        <v>12401</v>
       </c>
       <c r="J118" s="0" t="n">
-        <v>15892</v>
+        <v>16295</v>
       </c>
       <c r="K118" s="0" t="n">
-        <v>20120</v>
+        <v>20339</v>
       </c>
       <c r="L118" s="0" t="n">
-        <v>24536</v>
+        <v>24672</v>
       </c>
       <c r="M118" s="0" t="n">
-        <v>29126</v>
+        <v>29271</v>
       </c>
       <c r="N118" s="0" t="n">
-        <v>33906</v>
+        <v>34064</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6133,28 +6133,28 @@
         <v>60</v>
       </c>
       <c r="G119" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H119" s="0" t="n">
         <v>18</v>
       </c>
       <c r="I119" s="0" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J119" s="0" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K119" s="0" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L119" s="0" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M119" s="0" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="N119" s="0" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6180,19 +6180,19 @@
         <v>55</v>
       </c>
       <c r="H120" s="0" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I120" s="0" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J120" s="0" t="n">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K120" s="0" t="n">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L120" s="0" t="n">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="M120" s="0" t="n">
         <v>513</v>
@@ -6221,13 +6221,13 @@
         <v>60</v>
       </c>
       <c r="G121" s="0" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H121" s="0" t="n">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I121" s="0" t="n">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J121" s="0" t="n">
         <v>513</v>
@@ -6271,22 +6271,22 @@
         <v>96</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J122" s="0" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K122" s="0" t="n">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="L122" s="0" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="M122" s="0" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="N122" s="0" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6309,28 +6309,28 @@
         <v>80</v>
       </c>
       <c r="G123" s="0" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H123" s="0" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J123" s="0" t="n">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="K123" s="0" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="L123" s="0" t="n">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M123" s="0" t="n">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="N123" s="0" t="n">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6359,7 +6359,7 @@
         <v>228</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="J124" s="0" t="n">
         <v>423</v>
@@ -6397,19 +6397,19 @@
         <v>17002</v>
       </c>
       <c r="G125" s="0" t="n">
-        <v>15053</v>
+        <v>15040</v>
       </c>
       <c r="H125" s="0" t="n">
-        <v>32826</v>
+        <v>32824</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>52374</v>
+        <v>52369</v>
       </c>
       <c r="J125" s="0" t="n">
-        <v>73694</v>
+        <v>73708</v>
       </c>
       <c r="K125" s="0" t="n">
-        <v>97294</v>
+        <v>97313</v>
       </c>
       <c r="L125" s="0" t="n">
         <v>117904</v>
@@ -6441,16 +6441,16 @@
         <v>17002</v>
       </c>
       <c r="G126" s="0" t="n">
-        <v>19125</v>
+        <v>19109</v>
       </c>
       <c r="H126" s="0" t="n">
-        <v>41955</v>
+        <v>41948</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>67496</v>
+        <v>67506</v>
       </c>
       <c r="J126" s="0" t="n">
-        <v>96251</v>
+        <v>96273</v>
       </c>
       <c r="K126" s="0" t="n">
         <v>117904</v>
@@ -6485,13 +6485,13 @@
         <v>17002</v>
       </c>
       <c r="G127" s="0" t="n">
-        <v>23314</v>
+        <v>23310</v>
       </c>
       <c r="H127" s="0" t="n">
-        <v>51514</v>
+        <v>51511</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>83690</v>
+        <v>83713</v>
       </c>
       <c r="J127" s="0" t="n">
         <v>117904</v>
@@ -6529,28 +6529,28 @@
         <v>14196</v>
       </c>
       <c r="G128" s="0" t="n">
-        <v>20526</v>
+        <v>20519</v>
       </c>
       <c r="H128" s="0" t="n">
-        <v>36040</v>
+        <v>35952</v>
       </c>
       <c r="I128" s="0" t="n">
-        <v>49217</v>
+        <v>49115</v>
       </c>
       <c r="J128" s="0" t="n">
-        <v>62851</v>
+        <v>62669</v>
       </c>
       <c r="K128" s="0" t="n">
-        <v>76837</v>
+        <v>76662</v>
       </c>
       <c r="L128" s="0" t="n">
-        <v>91060</v>
+        <v>90813</v>
       </c>
       <c r="M128" s="0" t="n">
-        <v>105545</v>
+        <v>105290</v>
       </c>
       <c r="N128" s="0" t="n">
-        <v>120349</v>
+        <v>120046</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6573,28 +6573,28 @@
         <v>14196</v>
       </c>
       <c r="G129" s="0" t="n">
-        <v>26662</v>
+        <v>26593</v>
       </c>
       <c r="H129" s="0" t="n">
-        <v>44976</v>
+        <v>44843</v>
       </c>
       <c r="I129" s="0" t="n">
-        <v>63147</v>
+        <v>62981</v>
       </c>
       <c r="J129" s="0" t="n">
-        <v>81987</v>
+        <v>81770</v>
       </c>
       <c r="K129" s="0" t="n">
-        <v>101211</v>
+        <v>100946</v>
       </c>
       <c r="L129" s="0" t="n">
-        <v>120993</v>
+        <v>120691</v>
       </c>
       <c r="M129" s="0" t="n">
-        <v>140933</v>
+        <v>140640</v>
       </c>
       <c r="N129" s="0" t="n">
-        <v>161115</v>
+        <v>160792</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6617,28 +6617,28 @@
         <v>14196</v>
       </c>
       <c r="G130" s="0" t="n">
-        <v>31816</v>
+        <v>31684</v>
       </c>
       <c r="H130" s="0" t="n">
-        <v>54097</v>
+        <v>53992</v>
       </c>
       <c r="I130" s="0" t="n">
-        <v>77460</v>
+        <v>77285</v>
       </c>
       <c r="J130" s="0" t="n">
-        <v>101539</v>
+        <v>101270</v>
       </c>
       <c r="K130" s="0" t="n">
-        <v>126374</v>
+        <v>126058</v>
       </c>
       <c r="L130" s="0" t="n">
-        <v>151508</v>
+        <v>151195</v>
       </c>
       <c r="M130" s="0" t="n">
-        <v>176888</v>
+        <v>176585</v>
       </c>
       <c r="N130" s="0" t="n">
-        <v>202339</v>
+        <v>202055</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6661,7 +6661,7 @@
         <v>935</v>
       </c>
       <c r="G131" s="0" t="n">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="H131" s="0" t="n">
         <v>1665</v>
@@ -6752,7 +6752,7 @@
         <v>1315</v>
       </c>
       <c r="H133" s="0" t="n">
-        <v>2679</v>
+        <v>2678</v>
       </c>
       <c r="I133" s="0" t="n">
         <v>2726</v>
@@ -6793,25 +6793,25 @@
         <v>18690</v>
       </c>
       <c r="G134" s="0" t="n">
-        <v>15893</v>
+        <v>15926</v>
       </c>
       <c r="H134" s="0" t="n">
-        <v>32886</v>
+        <v>32917</v>
       </c>
       <c r="I134" s="0" t="n">
-        <v>49304</v>
+        <v>49352</v>
       </c>
       <c r="J134" s="0" t="n">
-        <v>65097</v>
+        <v>65120</v>
       </c>
       <c r="K134" s="0" t="n">
-        <v>80867</v>
+        <v>80862</v>
       </c>
       <c r="L134" s="0" t="n">
-        <v>98716</v>
+        <v>98731</v>
       </c>
       <c r="M134" s="0" t="n">
-        <v>121448</v>
+        <v>121483</v>
       </c>
       <c r="N134" s="0" t="n">
         <v>128616</v>
@@ -6837,19 +6837,19 @@
         <v>18690</v>
       </c>
       <c r="G135" s="0" t="n">
-        <v>21137</v>
+        <v>21162</v>
       </c>
       <c r="H135" s="0" t="n">
-        <v>43059</v>
+        <v>43096</v>
       </c>
       <c r="I135" s="0" t="n">
-        <v>63842</v>
+        <v>63858</v>
       </c>
       <c r="J135" s="0" t="n">
-        <v>84572</v>
+        <v>84568</v>
       </c>
       <c r="K135" s="0" t="n">
-        <v>110232</v>
+        <v>110253</v>
       </c>
       <c r="L135" s="0" t="n">
         <v>128616</v>
@@ -6881,16 +6881,16 @@
         <v>18690</v>
       </c>
       <c r="G136" s="0" t="n">
-        <v>26346</v>
+        <v>26368</v>
       </c>
       <c r="H136" s="0" t="n">
-        <v>52903</v>
+        <v>52936</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>78251</v>
+        <v>78246</v>
       </c>
       <c r="J136" s="0" t="n">
-        <v>108354</v>
+        <v>108369</v>
       </c>
       <c r="K136" s="0" t="n">
         <v>128616</v>
@@ -6925,28 +6925,28 @@
         <v>987</v>
       </c>
       <c r="G137" s="0" t="n">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H137" s="0" t="n">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="I137" s="0" t="n">
         <v>1819</v>
       </c>
       <c r="J137" s="0" t="n">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="K137" s="0" t="n">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="L137" s="0" t="n">
-        <v>3914</v>
+        <v>3911</v>
       </c>
       <c r="M137" s="0" t="n">
-        <v>4641</v>
+        <v>4637</v>
       </c>
       <c r="N137" s="0" t="n">
-        <v>5380</v>
+        <v>5376</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6969,28 +6969,28 @@
         <v>987</v>
       </c>
       <c r="G138" s="0" t="n">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H138" s="0" t="n">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>3296</v>
+        <v>3291</v>
       </c>
       <c r="J138" s="0" t="n">
-        <v>4532</v>
+        <v>4526</v>
       </c>
       <c r="K138" s="0" t="n">
-        <v>5805</v>
+        <v>5797</v>
       </c>
       <c r="L138" s="0" t="n">
-        <v>7149</v>
+        <v>7140</v>
       </c>
       <c r="M138" s="0" t="n">
-        <v>8590</v>
+        <v>8578</v>
       </c>
       <c r="N138" s="0" t="n">
-        <v>10155</v>
+        <v>10143</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7013,28 +7013,28 @@
         <v>987</v>
       </c>
       <c r="G139" s="0" t="n">
-        <v>1445</v>
+        <v>1443</v>
       </c>
       <c r="H139" s="0" t="n">
-        <v>3093</v>
+        <v>3087</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>4844</v>
+        <v>4836</v>
       </c>
       <c r="J139" s="0" t="n">
-        <v>6691</v>
+        <v>6680</v>
       </c>
       <c r="K139" s="0" t="n">
-        <v>8712</v>
+        <v>8698</v>
       </c>
       <c r="L139" s="0" t="n">
-        <v>10993</v>
+        <v>10977</v>
       </c>
       <c r="M139" s="0" t="n">
-        <v>13620</v>
+        <v>13603</v>
       </c>
       <c r="N139" s="0" t="n">
-        <v>15874</v>
+        <v>15875</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7057,28 +7057,28 @@
         <v>89</v>
       </c>
       <c r="G140" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H140" s="0" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="J140" s="0" t="n">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K140" s="0" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L140" s="0" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="M140" s="0" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="N140" s="0" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7101,28 +7101,28 @@
         <v>89</v>
       </c>
       <c r="G141" s="0" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H141" s="0" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J141" s="0" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K141" s="0" t="n">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L141" s="0" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="M141" s="0" t="n">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N141" s="0" t="n">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7145,7 +7145,7 @@
         <v>89</v>
       </c>
       <c r="G142" s="0" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H142" s="0" t="n">
         <v>238</v>
@@ -7160,13 +7160,13 @@
         <v>663</v>
       </c>
       <c r="L142" s="0" t="n">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="M142" s="0" t="n">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="N142" s="0" t="n">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7189,22 +7189,22 @@
         <v>44771</v>
       </c>
       <c r="G143" s="0" t="n">
-        <v>36341</v>
+        <v>36351</v>
       </c>
       <c r="H143" s="0" t="n">
-        <v>73238</v>
+        <v>73231</v>
       </c>
       <c r="I143" s="0" t="n">
-        <v>111941</v>
+        <v>111936</v>
       </c>
       <c r="J143" s="0" t="n">
-        <v>152048</v>
+        <v>152045</v>
       </c>
       <c r="K143" s="0" t="n">
-        <v>193211</v>
+        <v>193196</v>
       </c>
       <c r="L143" s="0" t="n">
-        <v>236105</v>
+        <v>236102</v>
       </c>
       <c r="M143" s="0" t="n">
         <v>265566</v>
@@ -7233,16 +7233,16 @@
         <v>44771</v>
       </c>
       <c r="G144" s="0" t="n">
-        <v>51240</v>
+        <v>51250</v>
       </c>
       <c r="H144" s="0" t="n">
-        <v>104986</v>
+        <v>104979</v>
       </c>
       <c r="I144" s="0" t="n">
-        <v>161581</v>
+        <v>161576</v>
       </c>
       <c r="J144" s="0" t="n">
-        <v>220639</v>
+        <v>220610</v>
       </c>
       <c r="K144" s="0" t="n">
         <v>265566</v>
@@ -7277,13 +7277,13 @@
         <v>44771</v>
       </c>
       <c r="G145" s="0" t="n">
-        <v>66563</v>
+        <v>66555</v>
       </c>
       <c r="H145" s="0" t="n">
-        <v>137761</v>
+        <v>137760</v>
       </c>
       <c r="I145" s="0" t="n">
-        <v>213069</v>
+        <v>213042</v>
       </c>
       <c r="J145" s="0" t="n">
         <v>265566</v>
@@ -7342,7 +7342,7 @@
         <v>5</v>
       </c>
       <c r="N146" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7421,16 +7421,16 @@
         <v>12</v>
       </c>
       <c r="K148" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L148" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M148" s="0" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N148" s="0" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7453,19 +7453,19 @@
         <v>36257</v>
       </c>
       <c r="G149" s="0" t="n">
-        <v>26279</v>
+        <v>26250</v>
       </c>
       <c r="H149" s="0" t="n">
-        <v>52821</v>
+        <v>52758</v>
       </c>
       <c r="I149" s="0" t="n">
-        <v>79960</v>
+        <v>79885</v>
       </c>
       <c r="J149" s="0" t="n">
-        <v>105753</v>
+        <v>105685</v>
       </c>
       <c r="K149" s="0" t="n">
-        <v>137230</v>
+        <v>137263</v>
       </c>
       <c r="L149" s="0" t="n">
         <v>171930</v>
@@ -7497,13 +7497,13 @@
         <v>36257</v>
       </c>
       <c r="G150" s="0" t="n">
-        <v>43115</v>
+        <v>43065</v>
       </c>
       <c r="H150" s="0" t="n">
-        <v>87007</v>
+        <v>86923</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>133358</v>
+        <v>133372</v>
       </c>
       <c r="J150" s="0" t="n">
         <v>171930</v>
@@ -7541,10 +7541,10 @@
         <v>36257</v>
       </c>
       <c r="G151" s="0" t="n">
-        <v>60108</v>
+        <v>60047</v>
       </c>
       <c r="H151" s="0" t="n">
-        <v>120976</v>
+        <v>120970</v>
       </c>
       <c r="I151" s="0" t="n">
         <v>171930</v>
@@ -7585,28 +7585,28 @@
         <v>7496</v>
       </c>
       <c r="G152" s="0" t="n">
-        <v>6586</v>
+        <v>6537</v>
       </c>
       <c r="H152" s="0" t="n">
-        <v>13406</v>
+        <v>13337</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>20529</v>
+        <v>20445</v>
       </c>
       <c r="J152" s="0" t="n">
-        <v>28262</v>
+        <v>28150</v>
       </c>
       <c r="K152" s="0" t="n">
-        <v>36747</v>
+        <v>36596</v>
       </c>
       <c r="L152" s="0" t="n">
-        <v>45585</v>
+        <v>45475</v>
       </c>
       <c r="M152" s="0" t="n">
-        <v>54740</v>
+        <v>54687</v>
       </c>
       <c r="N152" s="0" t="n">
-        <v>64297</v>
+        <v>64279</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7629,28 +7629,28 @@
         <v>7496</v>
       </c>
       <c r="G153" s="0" t="n">
-        <v>8283</v>
+        <v>8243</v>
       </c>
       <c r="H153" s="0" t="n">
-        <v>16970</v>
+        <v>16885</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>26340</v>
+        <v>26247</v>
       </c>
       <c r="J153" s="0" t="n">
-        <v>36883</v>
+        <v>36734</v>
       </c>
       <c r="K153" s="0" t="n">
-        <v>48018</v>
+        <v>47930</v>
       </c>
       <c r="L153" s="0" t="n">
-        <v>59680</v>
+        <v>59652</v>
       </c>
       <c r="M153" s="0" t="n">
-        <v>72061</v>
+        <v>72071</v>
       </c>
       <c r="N153" s="0" t="n">
-        <v>85331</v>
+        <v>85370</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7673,28 +7673,28 @@
         <v>7496</v>
       </c>
       <c r="G154" s="0" t="n">
-        <v>10003</v>
+        <v>9963</v>
       </c>
       <c r="H154" s="0" t="n">
-        <v>20641</v>
+        <v>20562</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>32635</v>
+        <v>32502</v>
       </c>
       <c r="J154" s="0" t="n">
-        <v>45864</v>
+        <v>45759</v>
       </c>
       <c r="K154" s="0" t="n">
-        <v>59826</v>
+        <v>59804</v>
       </c>
       <c r="L154" s="0" t="n">
-        <v>74829</v>
+        <v>74849</v>
       </c>
       <c r="M154" s="0" t="n">
-        <v>91159</v>
+        <v>91213</v>
       </c>
       <c r="N154" s="0" t="n">
-        <v>108943</v>
+        <v>108994</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7717,16 +7717,16 @@
         <v>20021</v>
       </c>
       <c r="G155" s="0" t="n">
-        <v>12488</v>
+        <v>12466</v>
       </c>
       <c r="H155" s="0" t="n">
-        <v>23580</v>
+        <v>23547</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>34128</v>
+        <v>34092</v>
       </c>
       <c r="J155" s="0" t="n">
-        <v>44498</v>
+        <v>44481</v>
       </c>
       <c r="K155" s="0" t="n">
         <v>50813</v>
@@ -7761,10 +7761,10 @@
         <v>20021</v>
       </c>
       <c r="G156" s="0" t="n">
-        <v>20852</v>
+        <v>20824</v>
       </c>
       <c r="H156" s="0" t="n">
-        <v>39231</v>
+        <v>39200</v>
       </c>
       <c r="I156" s="0" t="n">
         <v>50813</v>
@@ -7805,7 +7805,7 @@
         <v>20021</v>
       </c>
       <c r="G157" s="0" t="n">
-        <v>28712</v>
+        <v>28675</v>
       </c>
       <c r="H157" s="0" t="n">
         <v>50813</v>
@@ -7849,28 +7849,28 @@
         <v>139939</v>
       </c>
       <c r="G158" s="0" t="n">
-        <v>133522</v>
+        <v>133408</v>
       </c>
       <c r="H158" s="0" t="n">
-        <v>276851</v>
+        <v>276685</v>
       </c>
       <c r="I158" s="0" t="n">
-        <v>422764</v>
+        <v>422553</v>
       </c>
       <c r="J158" s="0" t="n">
-        <v>569131</v>
+        <v>569056</v>
       </c>
       <c r="K158" s="0" t="n">
-        <v>714861</v>
+        <v>714758</v>
       </c>
       <c r="L158" s="0" t="n">
-        <v>859465</v>
+        <v>859371</v>
       </c>
       <c r="M158" s="0" t="n">
-        <v>1003642</v>
+        <v>1003509</v>
       </c>
       <c r="N158" s="0" t="n">
-        <v>1147819</v>
+        <v>1147650</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7893,28 +7893,28 @@
         <v>139939</v>
       </c>
       <c r="G159" s="0" t="n">
-        <v>146318</v>
+        <v>146165</v>
       </c>
       <c r="H159" s="0" t="n">
-        <v>303473</v>
+        <v>303378</v>
       </c>
       <c r="I159" s="0" t="n">
-        <v>463104</v>
+        <v>462960</v>
       </c>
       <c r="J159" s="0" t="n">
-        <v>622750</v>
+        <v>622674</v>
       </c>
       <c r="K159" s="0" t="n">
-        <v>781258</v>
+        <v>781175</v>
       </c>
       <c r="L159" s="0" t="n">
-        <v>938834</v>
+        <v>938717</v>
       </c>
       <c r="M159" s="0" t="n">
-        <v>1096233</v>
+        <v>1096102</v>
       </c>
       <c r="N159" s="0" t="n">
-        <v>1253707</v>
+        <v>1253547</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7937,28 +7937,28 @@
         <v>139939</v>
       </c>
       <c r="G160" s="0" t="n">
-        <v>159284</v>
+        <v>159160</v>
       </c>
       <c r="H160" s="0" t="n">
-        <v>330270</v>
+        <v>330104</v>
       </c>
       <c r="I160" s="0" t="n">
-        <v>503376</v>
+        <v>503319</v>
       </c>
       <c r="J160" s="0" t="n">
-        <v>676209</v>
+        <v>676193</v>
       </c>
       <c r="K160" s="0" t="n">
-        <v>847539</v>
+        <v>847506</v>
       </c>
       <c r="L160" s="0" t="n">
-        <v>1018172</v>
+        <v>1018052</v>
       </c>
       <c r="M160" s="0" t="n">
-        <v>1188819</v>
+        <v>1188654</v>
       </c>
       <c r="N160" s="0" t="n">
-        <v>1359841</v>
+        <v>1359673</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7981,28 +7981,28 @@
         <v>1398</v>
       </c>
       <c r="G161" s="0" t="n">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H161" s="0" t="n">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I161" s="0" t="n">
-        <v>1719</v>
+        <v>1716</v>
       </c>
       <c r="J161" s="0" t="n">
-        <v>2440</v>
+        <v>2437</v>
       </c>
       <c r="K161" s="0" t="n">
-        <v>3212</v>
+        <v>3208</v>
       </c>
       <c r="L161" s="0" t="n">
-        <v>4038</v>
+        <v>4034</v>
       </c>
       <c r="M161" s="0" t="n">
-        <v>4909</v>
+        <v>4907</v>
       </c>
       <c r="N161" s="0" t="n">
-        <v>5833</v>
+        <v>5831</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8025,22 +8025,22 @@
         <v>1398</v>
       </c>
       <c r="G162" s="0" t="n">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="H162" s="0" t="n">
-        <v>2717</v>
+        <v>2714</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>4507</v>
+        <v>4506</v>
       </c>
       <c r="J162" s="0" t="n">
-        <v>6539</v>
+        <v>6540</v>
       </c>
       <c r="K162" s="0" t="n">
-        <v>8837</v>
+        <v>8835</v>
       </c>
       <c r="L162" s="0" t="n">
-        <v>11418</v>
+        <v>11415</v>
       </c>
       <c r="M162" s="0" t="n">
         <v>13358</v>
@@ -8069,13 +8069,13 @@
         <v>1398</v>
       </c>
       <c r="G163" s="0" t="n">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="H163" s="0" t="n">
         <v>4666</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>7944</v>
+        <v>7945</v>
       </c>
       <c r="J163" s="0" t="n">
         <v>11882</v>
@@ -8131,7 +8131,7 @@
         <v>22</v>
       </c>
       <c r="M164" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N164" s="0" t="n">
         <v>31</v>
@@ -8178,7 +8178,7 @@
         <v>63</v>
       </c>
       <c r="N165" s="0" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8301,16 +8301,16 @@
         <v>229</v>
       </c>
       <c r="K168" s="0" t="n">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L168" s="0" t="n">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M168" s="0" t="n">
         <v>426</v>
       </c>
       <c r="N168" s="0" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8333,7 +8333,7 @@
         <v>57</v>
       </c>
       <c r="G169" s="0" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H169" s="0" t="n">
         <v>179</v>
@@ -8345,16 +8345,16 @@
         <v>376</v>
       </c>
       <c r="K169" s="0" t="n">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="L169" s="0" t="n">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="M169" s="0" t="n">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="N169" s="0" t="n">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8377,7 +8377,7 @@
         <v>4</v>
       </c>
       <c r="G170" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H170" s="0" t="n">
         <v>2</v>
@@ -8509,7 +8509,7 @@
         <v>13</v>
       </c>
       <c r="G173" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H173" s="0" t="n">
         <v>7</v>
@@ -8530,7 +8530,7 @@
         <v>38</v>
       </c>
       <c r="N173" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8612,7 +8612,7 @@
         <v>124</v>
       </c>
       <c r="L175" s="0" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="M175" s="0" t="n">
         <v>199</v>
@@ -8773,28 +8773,28 @@
         <v>13561</v>
       </c>
       <c r="G179" s="0" t="n">
-        <v>14193</v>
+        <v>14205</v>
       </c>
       <c r="H179" s="0" t="n">
-        <v>28222</v>
+        <v>28234</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>40874</v>
+        <v>40862</v>
       </c>
       <c r="J179" s="0" t="n">
-        <v>53320</v>
+        <v>53279</v>
       </c>
       <c r="K179" s="0" t="n">
-        <v>65928</v>
+        <v>65906</v>
       </c>
       <c r="L179" s="0" t="n">
-        <v>78338</v>
+        <v>78328</v>
       </c>
       <c r="M179" s="0" t="n">
-        <v>90541</v>
+        <v>90534</v>
       </c>
       <c r="N179" s="0" t="n">
-        <v>102751</v>
+        <v>102757</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8817,28 +8817,28 @@
         <v>13561</v>
       </c>
       <c r="G180" s="0" t="n">
-        <v>17641</v>
+        <v>17657</v>
       </c>
       <c r="H180" s="0" t="n">
-        <v>34444</v>
+        <v>34429</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>49861</v>
+        <v>49832</v>
       </c>
       <c r="J180" s="0" t="n">
-        <v>65508</v>
+        <v>65469</v>
       </c>
       <c r="K180" s="0" t="n">
-        <v>80858</v>
+        <v>80860</v>
       </c>
       <c r="L180" s="0" t="n">
-        <v>96033</v>
+        <v>96025</v>
       </c>
       <c r="M180" s="0" t="n">
-        <v>111148</v>
+        <v>111146</v>
       </c>
       <c r="N180" s="0" t="n">
-        <v>126370</v>
+        <v>126393</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8861,28 +8861,28 @@
         <v>13561</v>
       </c>
       <c r="G181" s="0" t="n">
-        <v>21113</v>
+        <v>21102</v>
       </c>
       <c r="H181" s="0" t="n">
-        <v>40457</v>
+        <v>40450</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>58954</v>
+        <v>58938</v>
       </c>
       <c r="J181" s="0" t="n">
-        <v>77483</v>
+        <v>77486</v>
       </c>
       <c r="K181" s="0" t="n">
-        <v>95610</v>
+        <v>95605</v>
       </c>
       <c r="L181" s="0" t="n">
-        <v>113654</v>
+        <v>113688</v>
       </c>
       <c r="M181" s="0" t="n">
-        <v>131941</v>
+        <v>131947</v>
       </c>
       <c r="N181" s="0" t="n">
-        <v>150462</v>
+        <v>150447</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8905,7 +8905,7 @@
         <v>667</v>
       </c>
       <c r="G182" s="0" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H182" s="0" t="n">
         <v>500</v>
@@ -8955,22 +8955,22 @@
         <v>1488</v>
       </c>
       <c r="I183" s="0" t="n">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="J183" s="0" t="n">
-        <v>3291</v>
+        <v>3292</v>
       </c>
       <c r="K183" s="0" t="n">
-        <v>4283</v>
+        <v>4285</v>
       </c>
       <c r="L183" s="0" t="n">
-        <v>5343</v>
+        <v>5346</v>
       </c>
       <c r="M183" s="0" t="n">
-        <v>6491</v>
+        <v>6494</v>
       </c>
       <c r="N183" s="0" t="n">
-        <v>7747</v>
+        <v>7752</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8996,19 +8996,19 @@
         <v>1189</v>
       </c>
       <c r="H184" s="0" t="n">
-        <v>2600</v>
+        <v>2602</v>
       </c>
       <c r="I184" s="0" t="n">
-        <v>4179</v>
+        <v>4182</v>
       </c>
       <c r="J184" s="0" t="n">
-        <v>5938</v>
+        <v>5944</v>
       </c>
       <c r="K184" s="0" t="n">
-        <v>7959</v>
+        <v>7968</v>
       </c>
       <c r="L184" s="0" t="n">
-        <v>9355</v>
+        <v>9347</v>
       </c>
       <c r="M184" s="0" t="n">
         <v>11539</v>
@@ -9037,28 +9037,28 @@
         <v>97556</v>
       </c>
       <c r="G185" s="0" t="n">
-        <v>62006</v>
+        <v>61993</v>
       </c>
       <c r="H185" s="0" t="n">
-        <v>131616</v>
+        <v>131601</v>
       </c>
       <c r="I185" s="0" t="n">
-        <v>209365</v>
+        <v>209349</v>
       </c>
       <c r="J185" s="0" t="n">
-        <v>292137</v>
+        <v>292081</v>
       </c>
       <c r="K185" s="0" t="n">
-        <v>379958</v>
+        <v>379831</v>
       </c>
       <c r="L185" s="0" t="n">
-        <v>472085</v>
+        <v>471932</v>
       </c>
       <c r="M185" s="0" t="n">
-        <v>567864</v>
+        <v>567789</v>
       </c>
       <c r="N185" s="0" t="n">
-        <v>666989</v>
+        <v>667054</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9081,28 +9081,28 @@
         <v>97556</v>
       </c>
       <c r="G186" s="0" t="n">
-        <v>93536</v>
+        <v>93530</v>
       </c>
       <c r="H186" s="0" t="n">
-        <v>204966</v>
+        <v>204950</v>
       </c>
       <c r="I186" s="0" t="n">
-        <v>328163</v>
+        <v>328050</v>
       </c>
       <c r="J186" s="0" t="n">
-        <v>461732</v>
+        <v>461546</v>
       </c>
       <c r="K186" s="0" t="n">
-        <v>603395</v>
+        <v>603318</v>
       </c>
       <c r="L186" s="0" t="n">
-        <v>752423</v>
+        <v>752535</v>
       </c>
       <c r="M186" s="0" t="n">
-        <v>908638</v>
+        <v>908785</v>
       </c>
       <c r="N186" s="0" t="n">
-        <v>1069794</v>
+        <v>1069926</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9125,28 +9125,28 @@
         <v>97556</v>
       </c>
       <c r="G187" s="0" t="n">
-        <v>127534</v>
+        <v>127483</v>
       </c>
       <c r="H187" s="0" t="n">
-        <v>282734</v>
+        <v>282679</v>
       </c>
       <c r="I187" s="0" t="n">
-        <v>456546</v>
+        <v>456354</v>
       </c>
       <c r="J187" s="0" t="n">
-        <v>644860</v>
+        <v>644838</v>
       </c>
       <c r="K187" s="0" t="n">
-        <v>846083</v>
+        <v>846163</v>
       </c>
       <c r="L187" s="0" t="n">
-        <v>1057591</v>
+        <v>1057730</v>
       </c>
       <c r="M187" s="0" t="n">
-        <v>1275400</v>
+        <v>1275595</v>
       </c>
       <c r="N187" s="0" t="n">
-        <v>1497857</v>
+        <v>1498053</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9301,10 +9301,10 @@
         <v>46</v>
       </c>
       <c r="G191" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H191" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I191" s="0" t="n">
         <v>72</v>
@@ -9313,16 +9313,16 @@
         <v>87</v>
       </c>
       <c r="K191" s="0" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L191" s="0" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M191" s="0" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N191" s="0" t="n">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9345,7 +9345,7 @@
         <v>46</v>
       </c>
       <c r="G192" s="0" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H192" s="0" t="n">
         <v>115</v>
@@ -9389,7 +9389,7 @@
         <v>46</v>
       </c>
       <c r="G193" s="0" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H193" s="0" t="n">
         <v>180</v>
@@ -9433,25 +9433,25 @@
         <v>42339</v>
       </c>
       <c r="G194" s="0" t="n">
-        <v>38574</v>
+        <v>38483</v>
       </c>
       <c r="H194" s="0" t="n">
-        <v>74425</v>
+        <v>74395</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>110706</v>
+        <v>110679</v>
       </c>
       <c r="J194" s="0" t="n">
-        <v>148796</v>
+        <v>148678</v>
       </c>
       <c r="K194" s="0" t="n">
-        <v>187571</v>
+        <v>187475</v>
       </c>
       <c r="L194" s="0" t="n">
-        <v>226318</v>
+        <v>226296</v>
       </c>
       <c r="M194" s="0" t="n">
-        <v>273158</v>
+        <v>273121</v>
       </c>
       <c r="N194" s="0" t="n">
         <v>361820</v>
@@ -9477,19 +9477,19 @@
         <v>42339</v>
       </c>
       <c r="G195" s="0" t="n">
-        <v>50909</v>
+        <v>50866</v>
       </c>
       <c r="H195" s="0" t="n">
-        <v>99474</v>
+        <v>99434</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>150438</v>
+        <v>150323</v>
       </c>
       <c r="J195" s="0" t="n">
-        <v>202795</v>
+        <v>202743</v>
       </c>
       <c r="K195" s="0" t="n">
-        <v>258191</v>
+        <v>258170</v>
       </c>
       <c r="L195" s="0" t="n">
         <v>361820</v>
@@ -9521,16 +9521,16 @@
         <v>42339</v>
       </c>
       <c r="G196" s="0" t="n">
-        <v>63413</v>
+        <v>63403</v>
       </c>
       <c r="H196" s="0" t="n">
-        <v>125319</v>
+        <v>125259</v>
       </c>
       <c r="I196" s="0" t="n">
-        <v>190871</v>
+        <v>190786</v>
       </c>
       <c r="J196" s="0" t="n">
-        <v>260414</v>
+        <v>260401</v>
       </c>
       <c r="K196" s="0" t="n">
         <v>361820</v>
@@ -9697,28 +9697,28 @@
         <v>242</v>
       </c>
       <c r="G200" s="0" t="n">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="H200" s="0" t="n">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="I200" s="0" t="n">
-        <v>676</v>
+        <v>648</v>
       </c>
       <c r="J200" s="0" t="n">
-        <v>1045</v>
+        <v>1025</v>
       </c>
       <c r="K200" s="0" t="n">
-        <v>1475</v>
+        <v>1463</v>
       </c>
       <c r="L200" s="0" t="n">
-        <v>1971</v>
+        <v>1966</v>
       </c>
       <c r="M200" s="0" t="n">
-        <v>2547</v>
+        <v>2546</v>
       </c>
       <c r="N200" s="0" t="n">
-        <v>3205</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9741,16 +9741,16 @@
         <v>242</v>
       </c>
       <c r="G201" s="0" t="n">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="H201" s="0" t="n">
-        <v>1322</v>
+        <v>1308</v>
       </c>
       <c r="I201" s="0" t="n">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="J201" s="0" t="n">
-        <v>3649</v>
+        <v>3743</v>
       </c>
       <c r="K201" s="0" t="n">
         <v>4759</v>
@@ -9785,10 +9785,10 @@
         <v>242</v>
       </c>
       <c r="G202" s="0" t="n">
-        <v>914</v>
+        <v>890</v>
       </c>
       <c r="H202" s="0" t="n">
-        <v>2752</v>
+        <v>2748</v>
       </c>
       <c r="I202" s="0" t="n">
         <v>4759</v>
@@ -9826,31 +9826,31 @@
         <v>17</v>
       </c>
       <c r="F203" s="0" t="n">
-        <v>56000</v>
+        <v>56009</v>
       </c>
       <c r="G203" s="0" t="n">
-        <v>33996</v>
+        <v>34316</v>
       </c>
       <c r="H203" s="0" t="n">
-        <v>76085</v>
+        <v>75791</v>
       </c>
       <c r="I203" s="0" t="n">
-        <v>124965</v>
+        <v>123421</v>
       </c>
       <c r="J203" s="0" t="n">
-        <v>177061</v>
+        <v>175875</v>
       </c>
       <c r="K203" s="0" t="n">
-        <v>232050</v>
+        <v>231652</v>
       </c>
       <c r="L203" s="0" t="n">
-        <v>290026</v>
+        <v>289742</v>
       </c>
       <c r="M203" s="0" t="n">
-        <v>350625</v>
+        <v>349967</v>
       </c>
       <c r="N203" s="0" t="n">
-        <v>413418</v>
+        <v>412231</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9870,31 +9870,31 @@
         <v>18</v>
       </c>
       <c r="F204" s="0" t="n">
-        <v>56000</v>
+        <v>56009</v>
       </c>
       <c r="G204" s="0" t="n">
-        <v>46803</v>
+        <v>47310</v>
       </c>
       <c r="H204" s="0" t="n">
-        <v>107812</v>
+        <v>106440</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>176456</v>
+        <v>175177</v>
       </c>
       <c r="J204" s="0" t="n">
-        <v>250190</v>
+        <v>249799</v>
       </c>
       <c r="K204" s="0" t="n">
-        <v>329028</v>
+        <v>328339</v>
       </c>
       <c r="L204" s="0" t="n">
-        <v>412019</v>
+        <v>410576</v>
       </c>
       <c r="M204" s="0" t="n">
-        <v>498283</v>
+        <v>497143</v>
       </c>
       <c r="N204" s="0" t="n">
-        <v>588542</v>
+        <v>588951</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9914,31 +9914,31 @@
         <v>19</v>
       </c>
       <c r="F205" s="0" t="n">
-        <v>56000</v>
+        <v>56009</v>
       </c>
       <c r="G205" s="0" t="n">
-        <v>60685</v>
+        <v>60944</v>
       </c>
       <c r="H205" s="0" t="n">
-        <v>141296</v>
+        <v>139581</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>230785</v>
+        <v>230150</v>
       </c>
       <c r="J205" s="0" t="n">
-        <v>328364</v>
+        <v>327544</v>
       </c>
       <c r="K205" s="0" t="n">
-        <v>432387</v>
+        <v>430681</v>
       </c>
       <c r="L205" s="0" t="n">
-        <v>541687</v>
+        <v>541021</v>
       </c>
       <c r="M205" s="0" t="n">
-        <v>658302</v>
+        <v>659478</v>
       </c>
       <c r="N205" s="0" t="n">
-        <v>782343</v>
+        <v>784815</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9961,28 +9961,28 @@
         <v>24479</v>
       </c>
       <c r="G206" s="0" t="n">
-        <v>25792</v>
+        <v>25905</v>
       </c>
       <c r="H206" s="0" t="n">
-        <v>46033</v>
+        <v>46124</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>66455</v>
+        <v>66583</v>
       </c>
       <c r="J206" s="0" t="n">
-        <v>87775</v>
+        <v>87986</v>
       </c>
       <c r="K206" s="0" t="n">
-        <v>109790</v>
+        <v>110000</v>
       </c>
       <c r="L206" s="0" t="n">
-        <v>132686</v>
+        <v>132898</v>
       </c>
       <c r="M206" s="0" t="n">
-        <v>157031</v>
+        <v>157207</v>
       </c>
       <c r="N206" s="0" t="n">
-        <v>183220</v>
+        <v>183354</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10005,28 +10005,28 @@
         <v>24479</v>
       </c>
       <c r="G207" s="0" t="n">
-        <v>32986</v>
+        <v>33080</v>
       </c>
       <c r="H207" s="0" t="n">
-        <v>60047</v>
+        <v>60165</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>88566</v>
+        <v>88789</v>
       </c>
       <c r="J207" s="0" t="n">
-        <v>118386</v>
+        <v>118595</v>
       </c>
       <c r="K207" s="0" t="n">
-        <v>150210</v>
+        <v>150425</v>
       </c>
       <c r="L207" s="0" t="n">
-        <v>185190</v>
+        <v>185332</v>
       </c>
       <c r="M207" s="0" t="n">
-        <v>224527</v>
+        <v>224688</v>
       </c>
       <c r="N207" s="0" t="n">
-        <v>268860</v>
+        <v>269054</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10049,28 +10049,28 @@
         <v>24479</v>
       </c>
       <c r="G208" s="0" t="n">
-        <v>39893</v>
+        <v>39937</v>
       </c>
       <c r="H208" s="0" t="n">
-        <v>74494</v>
+        <v>74677</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>111398</v>
+        <v>111621</v>
       </c>
       <c r="J208" s="0" t="n">
-        <v>151099</v>
+        <v>151306</v>
       </c>
       <c r="K208" s="0" t="n">
-        <v>195857</v>
+        <v>195992</v>
       </c>
       <c r="L208" s="0" t="n">
-        <v>247863</v>
+        <v>248045</v>
       </c>
       <c r="M208" s="0" t="n">
-        <v>307693</v>
+        <v>307894</v>
       </c>
       <c r="N208" s="0" t="n">
-        <v>375827</v>
+        <v>376069</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10093,28 +10093,28 @@
         <v>132</v>
       </c>
       <c r="G209" s="0" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H209" s="0" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="J209" s="0" t="n">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="K209" s="0" t="n">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="L209" s="0" t="n">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="M209" s="0" t="n">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="N209" s="0" t="n">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10137,22 +10137,22 @@
         <v>132</v>
       </c>
       <c r="G210" s="0" t="n">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="H210" s="0" t="n">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="I210" s="0" t="n">
-        <v>1483</v>
+        <v>1489</v>
       </c>
       <c r="J210" s="0" t="n">
-        <v>2209</v>
+        <v>2211</v>
       </c>
       <c r="K210" s="0" t="n">
         <v>3045</v>
       </c>
       <c r="L210" s="0" t="n">
-        <v>3990</v>
+        <v>3992</v>
       </c>
       <c r="M210" s="0" t="n">
         <v>5465</v>
@@ -10181,13 +10181,13 @@
         <v>132</v>
       </c>
       <c r="G211" s="0" t="n">
-        <v>785</v>
+        <v>793</v>
       </c>
       <c r="H211" s="0" t="n">
-        <v>2001</v>
+        <v>2004</v>
       </c>
       <c r="I211" s="0" t="n">
-        <v>3611</v>
+        <v>3610</v>
       </c>
       <c r="J211" s="0" t="n">
         <v>5465</v>
@@ -10225,28 +10225,28 @@
         <v>27893</v>
       </c>
       <c r="G212" s="0" t="n">
-        <v>36974</v>
+        <v>36500</v>
       </c>
       <c r="H212" s="0" t="n">
-        <v>62067</v>
+        <v>60807</v>
       </c>
       <c r="I212" s="0" t="n">
-        <v>91817</v>
+        <v>91332</v>
       </c>
       <c r="J212" s="0" t="n">
-        <v>127626</v>
+        <v>126974</v>
       </c>
       <c r="K212" s="0" t="n">
-        <v>169580</v>
+        <v>168614</v>
       </c>
       <c r="L212" s="0" t="n">
-        <v>211415</v>
+        <v>211254</v>
       </c>
       <c r="M212" s="0" t="n">
-        <v>255555</v>
+        <v>255154</v>
       </c>
       <c r="N212" s="0" t="n">
-        <v>301910</v>
+        <v>300628</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10269,28 +10269,28 @@
         <v>27893</v>
       </c>
       <c r="G213" s="0" t="n">
-        <v>45187</v>
+        <v>44217</v>
       </c>
       <c r="H213" s="0" t="n">
-        <v>82084</v>
+        <v>81399</v>
       </c>
       <c r="I213" s="0" t="n">
-        <v>128893</v>
+        <v>128203</v>
       </c>
       <c r="J213" s="0" t="n">
-        <v>184983</v>
+        <v>184281</v>
       </c>
       <c r="K213" s="0" t="n">
-        <v>242938</v>
+        <v>242727</v>
       </c>
       <c r="L213" s="0" t="n">
-        <v>304900</v>
+        <v>303534</v>
       </c>
       <c r="M213" s="0" t="n">
-        <v>371587</v>
+        <v>369342</v>
       </c>
       <c r="N213" s="0" t="n">
-        <v>442748</v>
+        <v>440883</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10313,28 +10313,28 @@
         <v>27893</v>
       </c>
       <c r="G214" s="0" t="n">
-        <v>53715</v>
+        <v>52319</v>
       </c>
       <c r="H214" s="0" t="n">
-        <v>104085</v>
+        <v>103770</v>
       </c>
       <c r="I214" s="0" t="n">
-        <v>172158</v>
+        <v>171194</v>
       </c>
       <c r="J214" s="0" t="n">
-        <v>244325</v>
+        <v>244081</v>
       </c>
       <c r="K214" s="0" t="n">
-        <v>323147</v>
+        <v>321325</v>
       </c>
       <c r="L214" s="0" t="n">
-        <v>408897</v>
+        <v>406699</v>
       </c>
       <c r="M214" s="0" t="n">
-        <v>503327</v>
+        <v>501730</v>
       </c>
       <c r="N214" s="0" t="n">
-        <v>605677</v>
+        <v>604451</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10357,28 +10357,28 @@
         <v>589846</v>
       </c>
       <c r="G215" s="0" t="n">
-        <v>555621</v>
+        <v>553767</v>
       </c>
       <c r="H215" s="0" t="n">
-        <v>1228340</v>
+        <v>1224105</v>
       </c>
       <c r="I215" s="0" t="n">
-        <v>1976045</v>
+        <v>1971768</v>
       </c>
       <c r="J215" s="0" t="n">
-        <v>2788773</v>
+        <v>2784066</v>
       </c>
       <c r="K215" s="0" t="n">
-        <v>3653600</v>
+        <v>3651189</v>
       </c>
       <c r="L215" s="0" t="n">
-        <v>4589956</v>
+        <v>4587859</v>
       </c>
       <c r="M215" s="0" t="n">
-        <v>5614000</v>
+        <v>5611076</v>
       </c>
       <c r="N215" s="0" t="n">
-        <v>6717015</v>
+        <v>6714747</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10401,28 +10401,28 @@
         <v>589846</v>
       </c>
       <c r="G216" s="0" t="n">
-        <v>671318</v>
+        <v>668534</v>
       </c>
       <c r="H216" s="0" t="n">
-        <v>1490117</v>
+        <v>1485694</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>2407519</v>
+        <v>2402524</v>
       </c>
       <c r="J216" s="0" t="n">
-        <v>3403765</v>
+        <v>3400887</v>
       </c>
       <c r="K216" s="0" t="n">
-        <v>4491118</v>
+        <v>4489176</v>
       </c>
       <c r="L216" s="0" t="n">
-        <v>5697906</v>
+        <v>5694735</v>
       </c>
       <c r="M216" s="0" t="n">
-        <v>7008767</v>
+        <v>7006815</v>
       </c>
       <c r="N216" s="0" t="n">
-        <v>8366219</v>
+        <v>8365399</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10445,28 +10445,28 @@
         <v>589846</v>
       </c>
       <c r="G217" s="0" t="n">
-        <v>789327</v>
+        <v>785873</v>
       </c>
       <c r="H217" s="0" t="n">
-        <v>1759184</v>
+        <v>1755047</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>2854182</v>
+        <v>2849829</v>
       </c>
       <c r="J217" s="0" t="n">
-        <v>4053455</v>
+        <v>4051413</v>
       </c>
       <c r="K217" s="0" t="n">
-        <v>5398265</v>
+        <v>5395130</v>
       </c>
       <c r="L217" s="0" t="n">
-        <v>6893691</v>
+        <v>6891195</v>
       </c>
       <c r="M217" s="0" t="n">
-        <v>8457547</v>
+        <v>8455953</v>
       </c>
       <c r="N217" s="0" t="n">
-        <v>10043162</v>
+        <v>10043394</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10489,28 +10489,28 @@
         <v>3425</v>
       </c>
       <c r="G218" s="0" t="n">
-        <v>3183</v>
+        <v>3048</v>
       </c>
       <c r="H218" s="0" t="n">
-        <v>6248</v>
+        <v>5924</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>9295</v>
+        <v>8940</v>
       </c>
       <c r="J218" s="0" t="n">
-        <v>12376</v>
+        <v>12006</v>
       </c>
       <c r="K218" s="0" t="n">
-        <v>15490</v>
+        <v>15141</v>
       </c>
       <c r="L218" s="0" t="n">
-        <v>18672</v>
+        <v>18333</v>
       </c>
       <c r="M218" s="0" t="n">
-        <v>21914</v>
+        <v>21604</v>
       </c>
       <c r="N218" s="0" t="n">
-        <v>25199</v>
+        <v>24914</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10533,28 +10533,28 @@
         <v>3425</v>
       </c>
       <c r="G219" s="0" t="n">
-        <v>4161</v>
+        <v>3932</v>
       </c>
       <c r="H219" s="0" t="n">
-        <v>8258</v>
+        <v>7908</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>12332</v>
+        <v>11961</v>
       </c>
       <c r="J219" s="0" t="n">
-        <v>16484</v>
+        <v>16139</v>
       </c>
       <c r="K219" s="0" t="n">
-        <v>20744</v>
+        <v>20420</v>
       </c>
       <c r="L219" s="0" t="n">
-        <v>25101</v>
+        <v>24810</v>
       </c>
       <c r="M219" s="0" t="n">
-        <v>29516</v>
+        <v>29265</v>
       </c>
       <c r="N219" s="0" t="n">
-        <v>33995</v>
+        <v>33766</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10577,28 +10577,28 @@
         <v>3425</v>
       </c>
       <c r="G220" s="0" t="n">
-        <v>5172</v>
+        <v>4889</v>
       </c>
       <c r="H220" s="0" t="n">
-        <v>10256</v>
+        <v>9889</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>15402</v>
+        <v>15047</v>
       </c>
       <c r="J220" s="0" t="n">
-        <v>20697</v>
+        <v>20378</v>
       </c>
       <c r="K220" s="0" t="n">
-        <v>26145</v>
+        <v>25873</v>
       </c>
       <c r="L220" s="0" t="n">
-        <v>31672</v>
+        <v>31443</v>
       </c>
       <c r="M220" s="0" t="n">
-        <v>37311</v>
+        <v>37108</v>
       </c>
       <c r="N220" s="0" t="n">
-        <v>43022</v>
+        <v>42855</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10621,13 +10621,13 @@
         <v>37808</v>
       </c>
       <c r="G221" s="0" t="n">
-        <v>37071</v>
+        <v>37461</v>
       </c>
       <c r="H221" s="0" t="n">
-        <v>81697</v>
+        <v>81836</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>134178</v>
+        <v>134137</v>
       </c>
       <c r="J221" s="0" t="n">
         <v>196490</v>
@@ -10665,10 +10665,10 @@
         <v>37808</v>
       </c>
       <c r="G222" s="0" t="n">
-        <v>54611</v>
+        <v>54939</v>
       </c>
       <c r="H222" s="0" t="n">
-        <v>124380</v>
+        <v>124335</v>
       </c>
       <c r="I222" s="0" t="n">
         <v>196490</v>
@@ -10709,10 +10709,10 @@
         <v>37808</v>
       </c>
       <c r="G223" s="0" t="n">
-        <v>73641</v>
+        <v>73842</v>
       </c>
       <c r="H223" s="0" t="n">
-        <v>176081</v>
+        <v>176078</v>
       </c>
       <c r="I223" s="0" t="n">
         <v>196490</v>
@@ -10750,31 +10750,31 @@
         <v>17</v>
       </c>
       <c r="F224" s="0" t="n">
-        <v>12307</v>
+        <v>12364</v>
       </c>
       <c r="G224" s="0" t="n">
-        <v>10841</v>
+        <v>11206</v>
       </c>
       <c r="H224" s="0" t="n">
-        <v>18744</v>
+        <v>18643</v>
       </c>
       <c r="I224" s="0" t="n">
-        <v>26255</v>
+        <v>25871</v>
       </c>
       <c r="J224" s="0" t="n">
-        <v>33852</v>
+        <v>33245</v>
       </c>
       <c r="K224" s="0" t="n">
-        <v>41442</v>
+        <v>41051</v>
       </c>
       <c r="L224" s="0" t="n">
-        <v>49243</v>
+        <v>49241</v>
       </c>
       <c r="M224" s="0" t="n">
-        <v>57286</v>
+        <v>57950</v>
       </c>
       <c r="N224" s="0" t="n">
-        <v>65699</v>
+        <v>67085</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10794,31 +10794,31 @@
         <v>18</v>
       </c>
       <c r="F225" s="0" t="n">
-        <v>12307</v>
+        <v>12364</v>
       </c>
       <c r="G225" s="0" t="n">
-        <v>14983</v>
+        <v>15061</v>
       </c>
       <c r="H225" s="0" t="n">
-        <v>26326</v>
+        <v>25942</v>
       </c>
       <c r="I225" s="0" t="n">
-        <v>37738</v>
+        <v>37224</v>
       </c>
       <c r="J225" s="0" t="n">
-        <v>49404</v>
+        <v>49414</v>
       </c>
       <c r="K225" s="0" t="n">
-        <v>61649</v>
+        <v>62717</v>
       </c>
       <c r="L225" s="0" t="n">
-        <v>74832</v>
+        <v>76622</v>
       </c>
       <c r="M225" s="0" t="n">
-        <v>88796</v>
+        <v>90787</v>
       </c>
       <c r="N225" s="0" t="n">
-        <v>103234</v>
+        <v>105239</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10838,31 +10838,31 @@
         <v>19</v>
       </c>
       <c r="F226" s="0" t="n">
-        <v>12307</v>
+        <v>12364</v>
       </c>
       <c r="G226" s="0" t="n">
-        <v>18824</v>
+        <v>18714</v>
       </c>
       <c r="H226" s="0" t="n">
-        <v>34003</v>
+        <v>33399</v>
       </c>
       <c r="I226" s="0" t="n">
-        <v>49480</v>
+        <v>49486</v>
       </c>
       <c r="J226" s="0" t="n">
-        <v>66063</v>
+        <v>67451</v>
       </c>
       <c r="K226" s="0" t="n">
-        <v>84207</v>
+        <v>86172</v>
       </c>
       <c r="L226" s="0" t="n">
-        <v>103415</v>
+        <v>105429</v>
       </c>
       <c r="M226" s="0" t="n">
-        <v>123132</v>
+        <v>125188</v>
       </c>
       <c r="N226" s="0" t="n">
-        <v>143152</v>
+        <v>145408</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10900,7 +10900,7 @@
         <v>21</v>
       </c>
       <c r="L227" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M227" s="0" t="n">
         <v>30</v>
@@ -10938,16 +10938,16 @@
         <v>32</v>
       </c>
       <c r="J228" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K228" s="0" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L228" s="0" t="n">
         <v>70</v>
       </c>
       <c r="M228" s="0" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N228" s="0" t="n">
         <v>98</v>
@@ -10976,13 +10976,13 @@
         <v>17</v>
       </c>
       <c r="H229" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I229" s="0" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J229" s="0" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K229" s="0" t="n">
         <v>98</v>
@@ -11014,19 +11014,19 @@
         <v>17</v>
       </c>
       <c r="F230" s="0" t="n">
-        <v>28866</v>
+        <v>28878</v>
       </c>
       <c r="G230" s="0" t="n">
-        <v>21426</v>
+        <v>20918</v>
       </c>
       <c r="H230" s="0" t="n">
-        <v>42657</v>
+        <v>41771</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>66394</v>
+        <v>64940</v>
       </c>
       <c r="J230" s="0" t="n">
-        <v>100942</v>
+        <v>100940</v>
       </c>
       <c r="K230" s="0" t="n">
         <v>185093</v>
@@ -11058,13 +11058,13 @@
         <v>18</v>
       </c>
       <c r="F231" s="0" t="n">
-        <v>28866</v>
+        <v>28878</v>
       </c>
       <c r="G231" s="0" t="n">
-        <v>36358</v>
+        <v>35672</v>
       </c>
       <c r="H231" s="0" t="n">
-        <v>77943</v>
+        <v>76457</v>
       </c>
       <c r="I231" s="0" t="n">
         <v>185093</v>
@@ -11102,13 +11102,13 @@
         <v>19</v>
       </c>
       <c r="F232" s="0" t="n">
-        <v>28866</v>
+        <v>28878</v>
       </c>
       <c r="G232" s="0" t="n">
-        <v>51421</v>
+        <v>50371</v>
       </c>
       <c r="H232" s="0" t="n">
-        <v>171829</v>
+        <v>172308</v>
       </c>
       <c r="I232" s="0" t="n">
         <v>185093</v>
@@ -11149,10 +11149,10 @@
         <v>14144</v>
       </c>
       <c r="G233" s="0" t="n">
-        <v>16112</v>
+        <v>16239</v>
       </c>
       <c r="H233" s="0" t="n">
-        <v>38883</v>
+        <v>38956</v>
       </c>
       <c r="I233" s="0" t="n">
         <v>53057</v>
@@ -11193,7 +11193,7 @@
         <v>14144</v>
       </c>
       <c r="G234" s="0" t="n">
-        <v>20018</v>
+        <v>20165</v>
       </c>
       <c r="H234" s="0" t="n">
         <v>53057</v>
@@ -11237,7 +11237,7 @@
         <v>14144</v>
       </c>
       <c r="G235" s="0" t="n">
-        <v>24453</v>
+        <v>24592</v>
       </c>
       <c r="H235" s="0" t="n">
         <v>53057</v>
@@ -11281,22 +11281,22 @@
         <v>734</v>
       </c>
       <c r="G236" s="0" t="n">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="H236" s="0" t="n">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="I236" s="0" t="n">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="J236" s="0" t="n">
         <v>2207</v>
       </c>
       <c r="K236" s="0" t="n">
-        <v>2681</v>
+        <v>2683</v>
       </c>
       <c r="L236" s="0" t="n">
-        <v>3181</v>
+        <v>3182</v>
       </c>
       <c r="M236" s="0" t="n">
         <v>3599</v>
@@ -11325,10 +11325,10 @@
         <v>734</v>
       </c>
       <c r="G237" s="0" t="n">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="H237" s="0" t="n">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I237" s="0" t="n">
         <v>1921</v>
@@ -11337,7 +11337,7 @@
         <v>2448</v>
       </c>
       <c r="K237" s="0" t="n">
-        <v>2996</v>
+        <v>2997</v>
       </c>
       <c r="L237" s="0" t="n">
         <v>3599</v>
@@ -11369,19 +11369,19 @@
         <v>734</v>
       </c>
       <c r="G238" s="0" t="n">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="H238" s="0" t="n">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="I238" s="0" t="n">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="J238" s="0" t="n">
         <v>2692</v>
       </c>
       <c r="K238" s="0" t="n">
-        <v>3326</v>
+        <v>3324</v>
       </c>
       <c r="L238" s="0" t="n">
         <v>3599</v>
@@ -11410,10 +11410,10 @@
         <v>17</v>
       </c>
       <c r="F239" s="0" t="n">
-        <v>98700</v>
+        <v>98703</v>
       </c>
       <c r="G239" s="0" t="n">
-        <v>72452</v>
+        <v>73719</v>
       </c>
       <c r="H239" s="0" t="n">
         <v>230698</v>
@@ -11454,10 +11454,10 @@
         <v>18</v>
       </c>
       <c r="F240" s="0" t="n">
-        <v>98700</v>
+        <v>98703</v>
       </c>
       <c r="G240" s="0" t="n">
-        <v>97611</v>
+        <v>100147</v>
       </c>
       <c r="H240" s="0" t="n">
         <v>230698</v>
@@ -11498,10 +11498,10 @@
         <v>19</v>
       </c>
       <c r="F241" s="0" t="n">
-        <v>98700</v>
+        <v>98703</v>
       </c>
       <c r="G241" s="0" t="n">
-        <v>131217</v>
+        <v>132457</v>
       </c>
       <c r="H241" s="0" t="n">
         <v>230698</v>
@@ -11545,25 +11545,25 @@
         <v>6963</v>
       </c>
       <c r="G242" s="0" t="n">
-        <v>6053</v>
+        <v>6060</v>
       </c>
       <c r="H242" s="0" t="n">
-        <v>12642</v>
+        <v>12634</v>
       </c>
       <c r="I242" s="0" t="n">
-        <v>19782</v>
+        <v>19799</v>
       </c>
       <c r="J242" s="0" t="n">
-        <v>27234</v>
+        <v>27229</v>
       </c>
       <c r="K242" s="0" t="n">
-        <v>34747</v>
+        <v>34708</v>
       </c>
       <c r="L242" s="0" t="n">
-        <v>42589</v>
+        <v>42570</v>
       </c>
       <c r="M242" s="0" t="n">
-        <v>51659</v>
+        <v>51638</v>
       </c>
       <c r="N242" s="0" t="n">
         <v>56053</v>
@@ -11589,13 +11589,13 @@
         <v>6963</v>
       </c>
       <c r="G243" s="0" t="n">
-        <v>11771</v>
+        <v>11762</v>
       </c>
       <c r="H243" s="0" t="n">
-        <v>25306</v>
+        <v>25310</v>
       </c>
       <c r="I243" s="0" t="n">
-        <v>39425</v>
+        <v>39410</v>
       </c>
       <c r="J243" s="0" t="n">
         <v>56053</v>
@@ -11633,10 +11633,10 @@
         <v>6963</v>
       </c>
       <c r="G244" s="0" t="n">
-        <v>17869</v>
+        <v>17893</v>
       </c>
       <c r="H244" s="0" t="n">
-        <v>38410</v>
+        <v>38400</v>
       </c>
       <c r="I244" s="0" t="n">
         <v>56053</v>
@@ -11674,31 +11674,31 @@
         <v>17</v>
       </c>
       <c r="F245" s="0" t="n">
-        <v>59881</v>
+        <v>59882</v>
       </c>
       <c r="G245" s="0" t="n">
-        <v>37281</v>
+        <v>36771</v>
       </c>
       <c r="H245" s="0" t="n">
-        <v>78321</v>
+        <v>77276</v>
       </c>
       <c r="I245" s="0" t="n">
-        <v>131107</v>
+        <v>130027</v>
       </c>
       <c r="J245" s="0" t="n">
-        <v>195291</v>
+        <v>194176</v>
       </c>
       <c r="K245" s="0" t="n">
-        <v>270499</v>
+        <v>270001</v>
       </c>
       <c r="L245" s="0" t="n">
-        <v>356877</v>
+        <v>356819</v>
       </c>
       <c r="M245" s="0" t="n">
-        <v>452234</v>
+        <v>452405</v>
       </c>
       <c r="N245" s="0" t="n">
-        <v>554355</v>
+        <v>554702</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11718,31 +11718,31 @@
         <v>18</v>
       </c>
       <c r="F246" s="0" t="n">
-        <v>59881</v>
+        <v>59882</v>
       </c>
       <c r="G246" s="0" t="n">
-        <v>53303</v>
+        <v>52576</v>
       </c>
       <c r="H246" s="0" t="n">
-        <v>121416</v>
+        <v>120411</v>
       </c>
       <c r="I246" s="0" t="n">
-        <v>213182</v>
+        <v>212149</v>
       </c>
       <c r="J246" s="0" t="n">
-        <v>327520</v>
+        <v>327274</v>
       </c>
       <c r="K246" s="0" t="n">
-        <v>461171</v>
+        <v>461249</v>
       </c>
       <c r="L246" s="0" t="n">
-        <v>608341</v>
+        <v>608462</v>
       </c>
       <c r="M246" s="0" t="n">
-        <v>765411</v>
+        <v>765358</v>
       </c>
       <c r="N246" s="0" t="n">
-        <v>921850</v>
+        <v>929370</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11762,25 +11762,25 @@
         <v>19</v>
       </c>
       <c r="F247" s="0" t="n">
-        <v>59881</v>
+        <v>59882</v>
       </c>
       <c r="G247" s="0" t="n">
-        <v>70921</v>
+        <v>69909</v>
       </c>
       <c r="H247" s="0" t="n">
-        <v>173363</v>
+        <v>172053</v>
       </c>
       <c r="I247" s="0" t="n">
-        <v>313183</v>
+        <v>312820</v>
       </c>
       <c r="J247" s="0" t="n">
-        <v>486667</v>
+        <v>486714</v>
       </c>
       <c r="K247" s="0" t="n">
-        <v>681629</v>
+        <v>681576</v>
       </c>
       <c r="L247" s="0" t="n">
-        <v>889456</v>
+        <v>891694</v>
       </c>
       <c r="M247" s="0" t="n">
         <v>1006208</v>
@@ -11809,16 +11809,16 @@
         <v>91721</v>
       </c>
       <c r="G248" s="0" t="n">
-        <v>88501</v>
+        <v>87703</v>
       </c>
       <c r="H248" s="0" t="n">
-        <v>191495</v>
+        <v>190940</v>
       </c>
       <c r="I248" s="0" t="n">
-        <v>302492</v>
+        <v>302629</v>
       </c>
       <c r="J248" s="0" t="n">
-        <v>427628</v>
+        <v>427711</v>
       </c>
       <c r="K248" s="0" t="n">
         <v>495034</v>
@@ -11853,13 +11853,13 @@
         <v>91721</v>
       </c>
       <c r="G249" s="0" t="n">
-        <v>112069</v>
+        <v>111335</v>
       </c>
       <c r="H249" s="0" t="n">
-        <v>245345</v>
+        <v>245191</v>
       </c>
       <c r="I249" s="0" t="n">
-        <v>393190</v>
+        <v>393253</v>
       </c>
       <c r="J249" s="0" t="n">
         <v>495034</v>
@@ -11897,10 +11897,10 @@
         <v>91721</v>
       </c>
       <c r="G250" s="0" t="n">
-        <v>136930</v>
+        <v>136200</v>
       </c>
       <c r="H250" s="0" t="n">
-        <v>300685</v>
+        <v>300761</v>
       </c>
       <c r="I250" s="0" t="n">
         <v>495034</v>
@@ -11985,7 +11985,7 @@
         <v>2015</v>
       </c>
       <c r="G252" s="0" t="n">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="H252" s="0" t="n">
         <v>2397</v>
@@ -12205,28 +12205,28 @@
         <v>234</v>
       </c>
       <c r="G257" s="0" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H257" s="0" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I257" s="0" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="J257" s="0" t="n">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K257" s="0" t="n">
         <v>339</v>
       </c>
       <c r="L257" s="0" t="n">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="M257" s="0" t="n">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="N257" s="0" t="n">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12249,10 +12249,10 @@
         <v>234</v>
       </c>
       <c r="G258" s="0" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H258" s="0" t="n">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="I258" s="0" t="n">
         <v>672</v>
@@ -12293,7 +12293,7 @@
         <v>234</v>
       </c>
       <c r="G259" s="0" t="n">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="H259" s="0" t="n">
         <v>672</v>
@@ -12334,31 +12334,31 @@
         <v>17</v>
       </c>
       <c r="F260" s="0" t="n">
-        <v>25567</v>
+        <v>25568</v>
       </c>
       <c r="G260" s="0" t="n">
-        <v>18476</v>
+        <v>18573</v>
       </c>
       <c r="H260" s="0" t="n">
-        <v>40520</v>
+        <v>39867</v>
       </c>
       <c r="I260" s="0" t="n">
-        <v>64286</v>
+        <v>64459</v>
       </c>
       <c r="J260" s="0" t="n">
-        <v>89876</v>
+        <v>90271</v>
       </c>
       <c r="K260" s="0" t="n">
-        <v>120477</v>
+        <v>120427</v>
       </c>
       <c r="L260" s="0" t="n">
-        <v>156801</v>
+        <v>156825</v>
       </c>
       <c r="M260" s="0" t="n">
-        <v>197379</v>
+        <v>197279</v>
       </c>
       <c r="N260" s="0" t="n">
-        <v>240376</v>
+        <v>239755</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12378,25 +12378,25 @@
         <v>18</v>
       </c>
       <c r="F261" s="0" t="n">
-        <v>25567</v>
+        <v>25568</v>
       </c>
       <c r="G261" s="0" t="n">
-        <v>28369</v>
+        <v>28055</v>
       </c>
       <c r="H261" s="0" t="n">
-        <v>62768</v>
+        <v>62845</v>
       </c>
       <c r="I261" s="0" t="n">
-        <v>101631</v>
+        <v>101884</v>
       </c>
       <c r="J261" s="0" t="n">
-        <v>151811</v>
+        <v>151776</v>
       </c>
       <c r="K261" s="0" t="n">
-        <v>211374</v>
+        <v>211090</v>
       </c>
       <c r="L261" s="0" t="n">
-        <v>285211</v>
+        <v>284663</v>
       </c>
       <c r="M261" s="0" t="n">
         <v>313164</v>
@@ -12422,19 +12422,19 @@
         <v>19</v>
       </c>
       <c r="F262" s="0" t="n">
-        <v>25567</v>
+        <v>25568</v>
       </c>
       <c r="G262" s="0" t="n">
-        <v>38999</v>
+        <v>38377</v>
       </c>
       <c r="H262" s="0" t="n">
-        <v>86312</v>
+        <v>86743</v>
       </c>
       <c r="I262" s="0" t="n">
-        <v>149334</v>
+        <v>149284</v>
       </c>
       <c r="J262" s="0" t="n">
-        <v>228688</v>
+        <v>228205</v>
       </c>
       <c r="K262" s="0" t="n">
         <v>313164</v>
@@ -12601,19 +12601,19 @@
         <v>628</v>
       </c>
       <c r="G266" s="0" t="n">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="H266" s="0" t="n">
-        <v>1574</v>
+        <v>1508</v>
       </c>
       <c r="I266" s="0" t="n">
-        <v>3876</v>
+        <v>3815</v>
       </c>
       <c r="J266" s="0" t="n">
-        <v>6648</v>
+        <v>6531</v>
       </c>
       <c r="K266" s="0" t="n">
-        <v>7871</v>
+        <v>8095</v>
       </c>
       <c r="L266" s="0" t="n">
         <v>13964</v>
@@ -12645,10 +12645,10 @@
         <v>628</v>
       </c>
       <c r="G267" s="0" t="n">
-        <v>1633</v>
+        <v>1567</v>
       </c>
       <c r="H267" s="0" t="n">
-        <v>6750</v>
+        <v>6721</v>
       </c>
       <c r="I267" s="0" t="n">
         <v>13964</v>
@@ -12689,7 +12689,7 @@
         <v>628</v>
       </c>
       <c r="G268" s="0" t="n">
-        <v>4032</v>
+        <v>3968</v>
       </c>
       <c r="H268" s="0" t="n">
         <v>13964</v>
@@ -12733,28 +12733,28 @@
         <v>49</v>
       </c>
       <c r="G269" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H269" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I269" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J269" s="0" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K269" s="0" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L269" s="0" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="M269" s="0" t="n">
         <v>108</v>
       </c>
       <c r="N269" s="0" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12777,16 +12777,16 @@
         <v>49</v>
       </c>
       <c r="G270" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H270" s="0" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I270" s="0" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J270" s="0" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K270" s="0" t="n">
         <v>200</v>
@@ -12821,19 +12821,19 @@
         <v>49</v>
       </c>
       <c r="G271" s="0" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H271" s="0" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I271" s="0" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J271" s="0" t="n">
         <v>258</v>
       </c>
       <c r="K271" s="0" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L271" s="0" t="n">
         <v>391</v>
@@ -12865,7 +12865,7 @@
         <v>36638</v>
       </c>
       <c r="G272" s="0" t="n">
-        <v>38593</v>
+        <v>38465</v>
       </c>
       <c r="H272" s="0" t="n">
         <v>82271</v>
@@ -12909,7 +12909,7 @@
         <v>36638</v>
       </c>
       <c r="G273" s="0" t="n">
-        <v>54622</v>
+        <v>54484</v>
       </c>
       <c r="H273" s="0" t="n">
         <v>82271</v>
@@ -13000,7 +13000,7 @@
         <v>469</v>
       </c>
       <c r="H275" s="0" t="n">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="I275" s="0" t="n">
         <v>2377</v>
@@ -13041,7 +13041,7 @@
         <v>1121</v>
       </c>
       <c r="G276" s="0" t="n">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="H276" s="0" t="n">
         <v>2219</v>
@@ -13129,28 +13129,28 @@
         <v>4445</v>
       </c>
       <c r="G278" s="0" t="n">
-        <v>3832</v>
+        <v>3820</v>
       </c>
       <c r="H278" s="0" t="n">
-        <v>8632</v>
+        <v>8559</v>
       </c>
       <c r="I278" s="0" t="n">
-        <v>13601</v>
+        <v>13523</v>
       </c>
       <c r="J278" s="0" t="n">
-        <v>19038</v>
+        <v>18992</v>
       </c>
       <c r="K278" s="0" t="n">
-        <v>24979</v>
+        <v>24972</v>
       </c>
       <c r="L278" s="0" t="n">
-        <v>31448</v>
+        <v>31444</v>
       </c>
       <c r="M278" s="0" t="n">
-        <v>38426</v>
+        <v>38413</v>
       </c>
       <c r="N278" s="0" t="n">
-        <v>46017</v>
+        <v>46006</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13173,25 +13173,25 @@
         <v>4445</v>
       </c>
       <c r="G279" s="0" t="n">
-        <v>5806</v>
+        <v>5775</v>
       </c>
       <c r="H279" s="0" t="n">
-        <v>12837</v>
+        <v>12742</v>
       </c>
       <c r="I279" s="0" t="n">
-        <v>20615</v>
+        <v>20590</v>
       </c>
       <c r="J279" s="0" t="n">
-        <v>29466</v>
+        <v>29464</v>
       </c>
       <c r="K279" s="0" t="n">
-        <v>39348</v>
+        <v>39336</v>
       </c>
       <c r="L279" s="0" t="n">
-        <v>50498</v>
+        <v>50480</v>
       </c>
       <c r="M279" s="0" t="n">
-        <v>63161</v>
+        <v>63128</v>
       </c>
       <c r="N279" s="0" t="n">
         <v>78233</v>
@@ -13217,22 +13217,22 @@
         <v>4445</v>
       </c>
       <c r="G280" s="0" t="n">
-        <v>7873</v>
+        <v>7829</v>
       </c>
       <c r="H280" s="0" t="n">
-        <v>17371</v>
+        <v>17318</v>
       </c>
       <c r="I280" s="0" t="n">
-        <v>28487</v>
+        <v>28489</v>
       </c>
       <c r="J280" s="0" t="n">
-        <v>41395</v>
+        <v>41384</v>
       </c>
       <c r="K280" s="0" t="n">
-        <v>56509</v>
+        <v>56493</v>
       </c>
       <c r="L280" s="0" t="n">
-        <v>71832</v>
+        <v>71795</v>
       </c>
       <c r="M280" s="0" t="n">
         <v>78233</v>
@@ -13261,7 +13261,7 @@
         <v>555</v>
       </c>
       <c r="G281" s="0" t="n">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H281" s="0" t="n">
         <v>752</v>
@@ -13305,7 +13305,7 @@
         <v>555</v>
       </c>
       <c r="G282" s="0" t="n">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H282" s="0" t="n">
         <v>1303</v>
@@ -13349,7 +13349,7 @@
         <v>555</v>
       </c>
       <c r="G283" s="0" t="n">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="H283" s="0" t="n">
         <v>1303</v>
@@ -13393,10 +13393,10 @@
         <v>11109</v>
       </c>
       <c r="G284" s="0" t="n">
-        <v>16112</v>
+        <v>16082</v>
       </c>
       <c r="H284" s="0" t="n">
-        <v>48386</v>
+        <v>48350</v>
       </c>
       <c r="I284" s="0" t="n">
         <v>65026</v>
@@ -13437,7 +13437,7 @@
         <v>11109</v>
       </c>
       <c r="G285" s="0" t="n">
-        <v>27593</v>
+        <v>27559</v>
       </c>
       <c r="H285" s="0" t="n">
         <v>65026</v>
@@ -13481,7 +13481,7 @@
         <v>11109</v>
       </c>
       <c r="G286" s="0" t="n">
-        <v>41559</v>
+        <v>41515</v>
       </c>
       <c r="H286" s="0" t="n">
         <v>65026</v>
@@ -13528,10 +13528,10 @@
         <v>1306</v>
       </c>
       <c r="H287" s="0" t="n">
-        <v>2674</v>
+        <v>2673</v>
       </c>
       <c r="I287" s="0" t="n">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="J287" s="0" t="n">
         <v>3942</v>
@@ -13569,7 +13569,7 @@
         <v>1827</v>
       </c>
       <c r="G288" s="0" t="n">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="H288" s="0" t="n">
         <v>3818</v>
@@ -13657,28 +13657,28 @@
         <v>15785</v>
       </c>
       <c r="G290" s="0" t="n">
-        <v>12183</v>
+        <v>12144</v>
       </c>
       <c r="H290" s="0" t="n">
-        <v>23791</v>
+        <v>23708</v>
       </c>
       <c r="I290" s="0" t="n">
-        <v>34987</v>
+        <v>34893</v>
       </c>
       <c r="J290" s="0" t="n">
-        <v>45945</v>
+        <v>45800</v>
       </c>
       <c r="K290" s="0" t="n">
-        <v>56793</v>
+        <v>56653</v>
       </c>
       <c r="L290" s="0" t="n">
-        <v>67552</v>
+        <v>67431</v>
       </c>
       <c r="M290" s="0" t="n">
-        <v>78445</v>
+        <v>78276</v>
       </c>
       <c r="N290" s="0" t="n">
-        <v>89472</v>
+        <v>89239</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13701,28 +13701,28 @@
         <v>15785</v>
       </c>
       <c r="G291" s="0" t="n">
-        <v>20962</v>
+        <v>20888</v>
       </c>
       <c r="H291" s="0" t="n">
-        <v>40526</v>
+        <v>40412</v>
       </c>
       <c r="I291" s="0" t="n">
-        <v>59566</v>
+        <v>59427</v>
       </c>
       <c r="J291" s="0" t="n">
-        <v>78544</v>
+        <v>78378</v>
       </c>
       <c r="K291" s="0" t="n">
-        <v>97980</v>
+        <v>97704</v>
       </c>
       <c r="L291" s="0" t="n">
-        <v>118349</v>
+        <v>118126</v>
       </c>
       <c r="M291" s="0" t="n">
-        <v>139994</v>
+        <v>139893</v>
       </c>
       <c r="N291" s="0" t="n">
-        <v>163281</v>
+        <v>163237</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13745,28 +13745,28 @@
         <v>15785</v>
       </c>
       <c r="G292" s="0" t="n">
-        <v>29488</v>
+        <v>29411</v>
       </c>
       <c r="H292" s="0" t="n">
-        <v>56888</v>
+        <v>56763</v>
       </c>
       <c r="I292" s="0" t="n">
-        <v>84109</v>
+        <v>83915</v>
       </c>
       <c r="J292" s="0" t="n">
-        <v>112464</v>
+        <v>112241</v>
       </c>
       <c r="K292" s="0" t="n">
-        <v>143289</v>
+        <v>143210</v>
       </c>
       <c r="L292" s="0" t="n">
-        <v>177522</v>
+        <v>177524</v>
       </c>
       <c r="M292" s="0" t="n">
-        <v>215080</v>
+        <v>215132</v>
       </c>
       <c r="N292" s="0" t="n">
-        <v>254698</v>
+        <v>254926</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13789,28 +13789,28 @@
         <v>2288</v>
       </c>
       <c r="G293" s="0" t="n">
-        <v>2359</v>
+        <v>2371</v>
       </c>
       <c r="H293" s="0" t="n">
-        <v>4118</v>
+        <v>4132</v>
       </c>
       <c r="I293" s="0" t="n">
-        <v>5641</v>
+        <v>5664</v>
       </c>
       <c r="J293" s="0" t="n">
-        <v>7164</v>
+        <v>7176</v>
       </c>
       <c r="K293" s="0" t="n">
-        <v>8729</v>
+        <v>8742</v>
       </c>
       <c r="L293" s="0" t="n">
-        <v>10394</v>
+        <v>10409</v>
       </c>
       <c r="M293" s="0" t="n">
-        <v>12175</v>
+        <v>12193</v>
       </c>
       <c r="N293" s="0" t="n">
-        <v>14012</v>
+        <v>14029</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13833,28 +13833,28 @@
         <v>2288</v>
       </c>
       <c r="G294" s="0" t="n">
-        <v>3205</v>
+        <v>3220</v>
       </c>
       <c r="H294" s="0" t="n">
-        <v>5466</v>
+        <v>5489</v>
       </c>
       <c r="I294" s="0" t="n">
-        <v>7667</v>
+        <v>7677</v>
       </c>
       <c r="J294" s="0" t="n">
-        <v>9995</v>
+        <v>10006</v>
       </c>
       <c r="K294" s="0" t="n">
-        <v>12563</v>
+        <v>12578</v>
       </c>
       <c r="L294" s="0" t="n">
-        <v>15236</v>
+        <v>15252</v>
       </c>
       <c r="M294" s="0" t="n">
-        <v>17992</v>
+        <v>18002</v>
       </c>
       <c r="N294" s="0" t="n">
-        <v>20769</v>
+        <v>20773</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13877,28 +13877,28 @@
         <v>2288</v>
       </c>
       <c r="G295" s="0" t="n">
-        <v>3939</v>
+        <v>3950</v>
       </c>
       <c r="H295" s="0" t="n">
-        <v>6817</v>
+        <v>6829</v>
       </c>
       <c r="I295" s="0" t="n">
-        <v>9798</v>
+        <v>9809</v>
       </c>
       <c r="J295" s="0" t="n">
-        <v>13158</v>
+        <v>13175</v>
       </c>
       <c r="K295" s="0" t="n">
-        <v>16699</v>
+        <v>16713</v>
       </c>
       <c r="L295" s="0" t="n">
-        <v>20321</v>
+        <v>20327</v>
       </c>
       <c r="M295" s="0" t="n">
-        <v>24036</v>
+        <v>24042</v>
       </c>
       <c r="N295" s="0" t="n">
-        <v>27848</v>
+        <v>27852</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13921,28 +13921,28 @@
         <v>11700</v>
       </c>
       <c r="G296" s="0" t="n">
-        <v>10123</v>
+        <v>10108</v>
       </c>
       <c r="H296" s="0" t="n">
-        <v>20611</v>
+        <v>20617</v>
       </c>
       <c r="I296" s="0" t="n">
-        <v>31575</v>
+        <v>31568</v>
       </c>
       <c r="J296" s="0" t="n">
-        <v>42571</v>
+        <v>42572</v>
       </c>
       <c r="K296" s="0" t="n">
-        <v>53666</v>
+        <v>53661</v>
       </c>
       <c r="L296" s="0" t="n">
-        <v>64744</v>
+        <v>64740</v>
       </c>
       <c r="M296" s="0" t="n">
-        <v>75887</v>
+        <v>75883</v>
       </c>
       <c r="N296" s="0" t="n">
-        <v>87148</v>
+        <v>87144</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13965,28 +13965,28 @@
         <v>11700</v>
       </c>
       <c r="G297" s="0" t="n">
-        <v>13209</v>
+        <v>13178</v>
       </c>
       <c r="H297" s="0" t="n">
-        <v>27053</v>
+        <v>27052</v>
       </c>
       <c r="I297" s="0" t="n">
-        <v>41308</v>
+        <v>41314</v>
       </c>
       <c r="J297" s="0" t="n">
-        <v>55683</v>
+        <v>55680</v>
       </c>
       <c r="K297" s="0" t="n">
-        <v>70039</v>
+        <v>70036</v>
       </c>
       <c r="L297" s="0" t="n">
         <v>84572</v>
       </c>
       <c r="M297" s="0" t="n">
-        <v>99230</v>
+        <v>99224</v>
       </c>
       <c r="N297" s="0" t="n">
-        <v>113946</v>
+        <v>113939</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14009,28 +14009,28 @@
         <v>11700</v>
       </c>
       <c r="G298" s="0" t="n">
-        <v>16283</v>
+        <v>16265</v>
       </c>
       <c r="H298" s="0" t="n">
-        <v>33560</v>
+        <v>33543</v>
       </c>
       <c r="I298" s="0" t="n">
-        <v>51137</v>
+        <v>51139</v>
       </c>
       <c r="J298" s="0" t="n">
-        <v>68777</v>
+        <v>68776</v>
       </c>
       <c r="K298" s="0" t="n">
-        <v>86643</v>
+        <v>86629</v>
       </c>
       <c r="L298" s="0" t="n">
-        <v>104636</v>
+        <v>104627</v>
       </c>
       <c r="M298" s="0" t="n">
-        <v>122855</v>
+        <v>122837</v>
       </c>
       <c r="N298" s="0" t="n">
-        <v>141288</v>
+        <v>141267</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14053,28 +14053,28 @@
         <v>588</v>
       </c>
       <c r="G299" s="0" t="n">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="H299" s="0" t="n">
-        <v>901</v>
+        <v>881</v>
       </c>
       <c r="I299" s="0" t="n">
-        <v>1476</v>
+        <v>1451</v>
       </c>
       <c r="J299" s="0" t="n">
-        <v>2070</v>
+        <v>2051</v>
       </c>
       <c r="K299" s="0" t="n">
-        <v>2657</v>
+        <v>2642</v>
       </c>
       <c r="L299" s="0" t="n">
-        <v>3239</v>
+        <v>3223</v>
       </c>
       <c r="M299" s="0" t="n">
-        <v>3825</v>
+        <v>3804</v>
       </c>
       <c r="N299" s="0" t="n">
-        <v>4421</v>
+        <v>4399</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14097,28 +14097,28 @@
         <v>588</v>
       </c>
       <c r="G300" s="0" t="n">
-        <v>536</v>
+        <v>519</v>
       </c>
       <c r="H300" s="0" t="n">
-        <v>1261</v>
+        <v>1239</v>
       </c>
       <c r="I300" s="0" t="n">
-        <v>2042</v>
+        <v>2023</v>
       </c>
       <c r="J300" s="0" t="n">
-        <v>2813</v>
+        <v>2798</v>
       </c>
       <c r="K300" s="0" t="n">
-        <v>3581</v>
+        <v>3562</v>
       </c>
       <c r="L300" s="0" t="n">
-        <v>4362</v>
+        <v>4342</v>
       </c>
       <c r="M300" s="0" t="n">
-        <v>5176</v>
+        <v>5151</v>
       </c>
       <c r="N300" s="0" t="n">
-        <v>6023</v>
+        <v>5986</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14141,28 +14141,28 @@
         <v>588</v>
       </c>
       <c r="G301" s="0" t="n">
-        <v>705</v>
+        <v>686</v>
       </c>
       <c r="H301" s="0" t="n">
-        <v>1636</v>
+        <v>1613</v>
       </c>
       <c r="I301" s="0" t="n">
-        <v>2604</v>
+        <v>2587</v>
       </c>
       <c r="J301" s="0" t="n">
-        <v>3557</v>
+        <v>3538</v>
       </c>
       <c r="K301" s="0" t="n">
-        <v>4530</v>
+        <v>4508</v>
       </c>
       <c r="L301" s="0" t="n">
-        <v>5554</v>
+        <v>5525</v>
       </c>
       <c r="M301" s="0" t="n">
-        <v>6627</v>
+        <v>6589</v>
       </c>
       <c r="N301" s="0" t="n">
-        <v>7737</v>
+        <v>7712</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14185,13 +14185,13 @@
         <v>103030</v>
       </c>
       <c r="G302" s="0" t="n">
-        <v>72945</v>
+        <v>72713</v>
       </c>
       <c r="H302" s="0" t="n">
-        <v>153703</v>
+        <v>153945</v>
       </c>
       <c r="I302" s="0" t="n">
-        <v>247558</v>
+        <v>247569</v>
       </c>
       <c r="J302" s="0" t="n">
         <v>307566</v>
@@ -14229,10 +14229,10 @@
         <v>103030</v>
       </c>
       <c r="G303" s="0" t="n">
-        <v>104718</v>
+        <v>104972</v>
       </c>
       <c r="H303" s="0" t="n">
-        <v>231573</v>
+        <v>231626</v>
       </c>
       <c r="I303" s="0" t="n">
         <v>307566</v>
@@ -14273,7 +14273,7 @@
         <v>103030</v>
       </c>
       <c r="G304" s="0" t="n">
-        <v>139421</v>
+        <v>139692</v>
       </c>
       <c r="H304" s="0" t="n">
         <v>307566</v>
@@ -14458,19 +14458,19 @@
         <v>889</v>
       </c>
       <c r="J308" s="0" t="n">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="K308" s="0" t="n">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="L308" s="0" t="n">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="M308" s="0" t="n">
-        <v>2600</v>
+        <v>2599</v>
       </c>
       <c r="N308" s="0" t="n">
-        <v>3047</v>
+        <v>3046</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14493,28 +14493,28 @@
         <v>1133</v>
       </c>
       <c r="G309" s="0" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H309" s="0" t="n">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="I309" s="0" t="n">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="J309" s="0" t="n">
-        <v>4613</v>
+        <v>4614</v>
       </c>
       <c r="K309" s="0" t="n">
         <v>5846</v>
       </c>
       <c r="L309" s="0" t="n">
-        <v>7102</v>
+        <v>7104</v>
       </c>
       <c r="M309" s="0" t="n">
-        <v>8405</v>
+        <v>8409</v>
       </c>
       <c r="N309" s="0" t="n">
-        <v>9742</v>
+        <v>9745</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14537,28 +14537,28 @@
         <v>1133</v>
       </c>
       <c r="G310" s="0" t="n">
-        <v>1616</v>
+        <v>1615</v>
       </c>
       <c r="H310" s="0" t="n">
-        <v>3765</v>
+        <v>3764</v>
       </c>
       <c r="I310" s="0" t="n">
         <v>5805</v>
       </c>
       <c r="J310" s="0" t="n">
-        <v>7911</v>
+        <v>7914</v>
       </c>
       <c r="K310" s="0" t="n">
-        <v>10116</v>
+        <v>10118</v>
       </c>
       <c r="L310" s="0" t="n">
-        <v>12353</v>
+        <v>12355</v>
       </c>
       <c r="M310" s="0" t="n">
-        <v>14633</v>
+        <v>14636</v>
       </c>
       <c r="N310" s="0" t="n">
-        <v>17000</v>
+        <v>17003</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14581,28 +14581,28 @@
         <v>52510</v>
       </c>
       <c r="G311" s="0" t="n">
-        <v>43711</v>
+        <v>43675</v>
       </c>
       <c r="H311" s="0" t="n">
-        <v>92325</v>
+        <v>92335</v>
       </c>
       <c r="I311" s="0" t="n">
-        <v>144136</v>
+        <v>144191</v>
       </c>
       <c r="J311" s="0" t="n">
-        <v>198536</v>
+        <v>198628</v>
       </c>
       <c r="K311" s="0" t="n">
-        <v>255093</v>
+        <v>255263</v>
       </c>
       <c r="L311" s="0" t="n">
-        <v>313828</v>
+        <v>314030</v>
       </c>
       <c r="M311" s="0" t="n">
-        <v>374790</v>
+        <v>374964</v>
       </c>
       <c r="N311" s="0" t="n">
-        <v>438014</v>
+        <v>438206</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14625,28 +14625,28 @@
         <v>52510</v>
       </c>
       <c r="G312" s="0" t="n">
-        <v>63469</v>
+        <v>63438</v>
       </c>
       <c r="H312" s="0" t="n">
-        <v>135145</v>
+        <v>135174</v>
       </c>
       <c r="I312" s="0" t="n">
-        <v>212241</v>
+        <v>212326</v>
       </c>
       <c r="J312" s="0" t="n">
-        <v>293663</v>
+        <v>293827</v>
       </c>
       <c r="K312" s="0" t="n">
-        <v>379518</v>
+        <v>379649</v>
       </c>
       <c r="L312" s="0" t="n">
-        <v>469890</v>
+        <v>470011</v>
       </c>
       <c r="M312" s="0" t="n">
-        <v>563691</v>
+        <v>563993</v>
       </c>
       <c r="N312" s="0" t="n">
-        <v>654266</v>
+        <v>654320</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14669,22 +14669,22 @@
         <v>52510</v>
       </c>
       <c r="G313" s="0" t="n">
-        <v>83841</v>
+        <v>83836</v>
       </c>
       <c r="H313" s="0" t="n">
-        <v>179819</v>
+        <v>179847</v>
       </c>
       <c r="I313" s="0" t="n">
-        <v>283689</v>
+        <v>283827</v>
       </c>
       <c r="J313" s="0" t="n">
-        <v>394887</v>
+        <v>394978</v>
       </c>
       <c r="K313" s="0" t="n">
-        <v>513484</v>
+        <v>513653</v>
       </c>
       <c r="L313" s="0" t="n">
-        <v>633517</v>
+        <v>634002</v>
       </c>
       <c r="M313" s="0" t="n">
         <v>683486</v>
@@ -14713,19 +14713,19 @@
         <v>23665</v>
       </c>
       <c r="G314" s="0" t="n">
-        <v>14575</v>
+        <v>14533</v>
       </c>
       <c r="H314" s="0" t="n">
-        <v>37176</v>
+        <v>36975</v>
       </c>
       <c r="I314" s="0" t="n">
-        <v>64634</v>
+        <v>64479</v>
       </c>
       <c r="J314" s="0" t="n">
-        <v>94626</v>
+        <v>94561</v>
       </c>
       <c r="K314" s="0" t="n">
-        <v>126823</v>
+        <v>126811</v>
       </c>
       <c r="L314" s="0" t="n">
         <v>158881</v>
@@ -14757,16 +14757,16 @@
         <v>23665</v>
       </c>
       <c r="G315" s="0" t="n">
-        <v>24008</v>
+        <v>23872</v>
       </c>
       <c r="H315" s="0" t="n">
-        <v>61837</v>
+        <v>61664</v>
       </c>
       <c r="I315" s="0" t="n">
-        <v>105696</v>
+        <v>105652</v>
       </c>
       <c r="J315" s="0" t="n">
-        <v>155782</v>
+        <v>155801</v>
       </c>
       <c r="K315" s="0" t="n">
         <v>158881</v>
@@ -14801,13 +14801,13 @@
         <v>23665</v>
       </c>
       <c r="G316" s="0" t="n">
-        <v>34773</v>
+        <v>34575</v>
       </c>
       <c r="H316" s="0" t="n">
-        <v>88706</v>
+        <v>88618</v>
       </c>
       <c r="I316" s="0" t="n">
-        <v>152343</v>
+        <v>152372</v>
       </c>
       <c r="J316" s="0" t="n">
         <v>158881</v>
@@ -14845,28 +14845,28 @@
         <v>914811</v>
       </c>
       <c r="G317" s="0" t="n">
-        <v>648244</v>
+        <v>648283</v>
       </c>
       <c r="H317" s="0" t="n">
-        <v>1419658</v>
+        <v>1421733</v>
       </c>
       <c r="I317" s="0" t="n">
-        <v>2357787</v>
+        <v>2359066</v>
       </c>
       <c r="J317" s="0" t="n">
-        <v>3446946</v>
+        <v>3452475</v>
       </c>
       <c r="K317" s="0" t="n">
-        <v>4669847</v>
+        <v>4675332</v>
       </c>
       <c r="L317" s="0" t="n">
-        <v>5997422</v>
+        <v>5998995</v>
       </c>
       <c r="M317" s="0" t="n">
-        <v>7395958</v>
+        <v>7399642</v>
       </c>
       <c r="N317" s="0" t="n">
-        <v>8845681</v>
+        <v>8849108</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14889,28 +14889,28 @@
         <v>914811</v>
       </c>
       <c r="G318" s="0" t="n">
-        <v>868424</v>
+        <v>869154</v>
       </c>
       <c r="H318" s="0" t="n">
-        <v>1969482</v>
+        <v>1970429</v>
       </c>
       <c r="I318" s="0" t="n">
-        <v>3345062</v>
+        <v>3350195</v>
       </c>
       <c r="J318" s="0" t="n">
-        <v>4948630</v>
+        <v>4953032</v>
       </c>
       <c r="K318" s="0" t="n">
-        <v>6715537</v>
+        <v>6719072</v>
       </c>
       <c r="L318" s="0" t="n">
-        <v>8587099</v>
+        <v>8589979</v>
       </c>
       <c r="M318" s="0" t="n">
-        <v>10514202</v>
+        <v>10516543</v>
       </c>
       <c r="N318" s="0" t="n">
-        <v>12488668</v>
+        <v>12486265</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14933,25 +14933,25 @@
         <v>914811</v>
       </c>
       <c r="G319" s="0" t="n">
-        <v>1100121</v>
+        <v>1101456</v>
       </c>
       <c r="H319" s="0" t="n">
-        <v>2580914</v>
+        <v>2582986</v>
       </c>
       <c r="I319" s="0" t="n">
-        <v>4444675</v>
+        <v>4451321</v>
       </c>
       <c r="J319" s="0" t="n">
-        <v>6592421</v>
+        <v>6594924</v>
       </c>
       <c r="K319" s="0" t="n">
-        <v>8903594</v>
+        <v>8906250</v>
       </c>
       <c r="L319" s="0" t="n">
-        <v>11297377</v>
+        <v>11295379</v>
       </c>
       <c r="M319" s="0" t="n">
-        <v>13754218</v>
+        <v>13764576</v>
       </c>
       <c r="N319" s="0" t="n">
         <v>15686232</v>
@@ -14977,19 +14977,19 @@
         <v>146776</v>
       </c>
       <c r="G320" s="0" t="n">
-        <v>125019</v>
+        <v>124872</v>
       </c>
       <c r="H320" s="0" t="n">
-        <v>264260</v>
+        <v>264064</v>
       </c>
       <c r="I320" s="0" t="n">
-        <v>411093</v>
+        <v>410864</v>
       </c>
       <c r="J320" s="0" t="n">
-        <v>567300</v>
+        <v>567109</v>
       </c>
       <c r="K320" s="0" t="n">
-        <v>736601</v>
+        <v>736590</v>
       </c>
       <c r="L320" s="0" t="n">
         <v>929158</v>
@@ -15021,19 +15021,19 @@
         <v>146776</v>
       </c>
       <c r="G321" s="0" t="n">
-        <v>149847</v>
+        <v>149682</v>
       </c>
       <c r="H321" s="0" t="n">
-        <v>316960</v>
+        <v>316723</v>
       </c>
       <c r="I321" s="0" t="n">
-        <v>495452</v>
+        <v>495157</v>
       </c>
       <c r="J321" s="0" t="n">
-        <v>689223</v>
+        <v>689059</v>
       </c>
       <c r="K321" s="0" t="n">
-        <v>916727</v>
+        <v>916788</v>
       </c>
       <c r="L321" s="0" t="n">
         <v>929158</v>
@@ -15065,16 +15065,16 @@
         <v>146776</v>
       </c>
       <c r="G322" s="0" t="n">
-        <v>175033</v>
+        <v>174807</v>
       </c>
       <c r="H322" s="0" t="n">
-        <v>370741</v>
+        <v>370468</v>
       </c>
       <c r="I322" s="0" t="n">
-        <v>582932</v>
+        <v>582636</v>
       </c>
       <c r="J322" s="0" t="n">
-        <v>823008</v>
+        <v>822850</v>
       </c>
       <c r="K322" s="0" t="n">
         <v>929158</v>
@@ -15109,28 +15109,28 @@
         <v>237535</v>
       </c>
       <c r="G323" s="0" t="n">
-        <v>178892</v>
+        <v>178805</v>
       </c>
       <c r="H323" s="0" t="n">
-        <v>410252</v>
+        <v>411559</v>
       </c>
       <c r="I323" s="0" t="n">
-        <v>691446</v>
+        <v>694472</v>
       </c>
       <c r="J323" s="0" t="n">
-        <v>1009814</v>
+        <v>1015715</v>
       </c>
       <c r="K323" s="0" t="n">
-        <v>1355891</v>
+        <v>1364029</v>
       </c>
       <c r="L323" s="0" t="n">
-        <v>1725897</v>
+        <v>1734911</v>
       </c>
       <c r="M323" s="0" t="n">
-        <v>2112320</v>
+        <v>2119165</v>
       </c>
       <c r="N323" s="0" t="n">
-        <v>2503326</v>
+        <v>2505255</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15153,25 +15153,25 @@
         <v>237535</v>
       </c>
       <c r="G324" s="0" t="n">
-        <v>227142</v>
+        <v>227400</v>
       </c>
       <c r="H324" s="0" t="n">
-        <v>532403</v>
+        <v>534348</v>
       </c>
       <c r="I324" s="0" t="n">
-        <v>905218</v>
+        <v>910307</v>
       </c>
       <c r="J324" s="0" t="n">
-        <v>1323522</v>
+        <v>1331425</v>
       </c>
       <c r="K324" s="0" t="n">
-        <v>1778184</v>
+        <v>1786739</v>
       </c>
       <c r="L324" s="0" t="n">
-        <v>2254762</v>
+        <v>2260364</v>
       </c>
       <c r="M324" s="0" t="n">
-        <v>2732966</v>
+        <v>2732426</v>
       </c>
       <c r="N324" s="0" t="n">
         <v>2955147</v>
@@ -15197,22 +15197,22 @@
         <v>237535</v>
       </c>
       <c r="G325" s="0" t="n">
-        <v>277857</v>
+        <v>278452</v>
       </c>
       <c r="H325" s="0" t="n">
-        <v>664208</v>
+        <v>666982</v>
       </c>
       <c r="I325" s="0" t="n">
-        <v>1132855</v>
+        <v>1139504</v>
       </c>
       <c r="J325" s="0" t="n">
-        <v>1657275</v>
+        <v>1666347</v>
       </c>
       <c r="K325" s="0" t="n">
-        <v>2219477</v>
+        <v>2225019</v>
       </c>
       <c r="L325" s="0" t="n">
-        <v>2786281</v>
+        <v>2782833</v>
       </c>
       <c r="M325" s="0" t="n">
         <v>2955147</v>
@@ -15241,25 +15241,25 @@
         <v>207346</v>
       </c>
       <c r="G326" s="0" t="n">
-        <v>172516</v>
+        <v>172386</v>
       </c>
       <c r="H326" s="0" t="n">
-        <v>377754</v>
+        <v>377502</v>
       </c>
       <c r="I326" s="0" t="n">
-        <v>596389</v>
+        <v>596245</v>
       </c>
       <c r="J326" s="0" t="n">
-        <v>826264</v>
+        <v>826119</v>
       </c>
       <c r="K326" s="0" t="n">
-        <v>1068623</v>
+        <v>1068407</v>
       </c>
       <c r="L326" s="0" t="n">
-        <v>1325766</v>
+        <v>1325525</v>
       </c>
       <c r="M326" s="0" t="n">
-        <v>1601163</v>
+        <v>1600937</v>
       </c>
       <c r="N326" s="0" t="n">
         <v>1813034</v>
@@ -15285,22 +15285,22 @@
         <v>207346</v>
       </c>
       <c r="G327" s="0" t="n">
-        <v>221167</v>
+        <v>220978</v>
       </c>
       <c r="H327" s="0" t="n">
-        <v>483993</v>
+        <v>483837</v>
       </c>
       <c r="I327" s="0" t="n">
-        <v>765066</v>
+        <v>765004</v>
       </c>
       <c r="J327" s="0" t="n">
-        <v>1064812</v>
+        <v>1064699</v>
       </c>
       <c r="K327" s="0" t="n">
-        <v>1387575</v>
+        <v>1387478</v>
       </c>
       <c r="L327" s="0" t="n">
-        <v>1738967</v>
+        <v>1739056</v>
       </c>
       <c r="M327" s="0" t="n">
         <v>1813034</v>
@@ -15329,19 +15329,19 @@
         <v>207346</v>
       </c>
       <c r="G328" s="0" t="n">
-        <v>271246</v>
+        <v>271050</v>
       </c>
       <c r="H328" s="0" t="n">
-        <v>592930</v>
+        <v>592884</v>
       </c>
       <c r="I328" s="0" t="n">
-        <v>940199</v>
+        <v>940157</v>
       </c>
       <c r="J328" s="0" t="n">
-        <v>1317621</v>
+        <v>1317583</v>
       </c>
       <c r="K328" s="0" t="n">
-        <v>1734177</v>
+        <v>1734270</v>
       </c>
       <c r="L328" s="0" t="n">
         <v>1813034</v>
@@ -15505,28 +15505,28 @@
         <v>63247</v>
       </c>
       <c r="G332" s="0" t="n">
-        <v>45911</v>
+        <v>45761</v>
       </c>
       <c r="H332" s="0" t="n">
-        <v>83738</v>
+        <v>83586</v>
       </c>
       <c r="I332" s="0" t="n">
-        <v>122294</v>
+        <v>122053</v>
       </c>
       <c r="J332" s="0" t="n">
-        <v>160222</v>
+        <v>159738</v>
       </c>
       <c r="K332" s="0" t="n">
-        <v>198065</v>
+        <v>197529</v>
       </c>
       <c r="L332" s="0" t="n">
-        <v>236308</v>
+        <v>235761</v>
       </c>
       <c r="M332" s="0" t="n">
-        <v>275445</v>
+        <v>274861</v>
       </c>
       <c r="N332" s="0" t="n">
-        <v>315605</v>
+        <v>315025</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15549,28 +15549,28 @@
         <v>63247</v>
       </c>
       <c r="G333" s="0" t="n">
-        <v>70801</v>
+        <v>70691</v>
       </c>
       <c r="H333" s="0" t="n">
-        <v>134786</v>
+        <v>134449</v>
       </c>
       <c r="I333" s="0" t="n">
-        <v>197720</v>
+        <v>197216</v>
       </c>
       <c r="J333" s="0" t="n">
-        <v>261795</v>
+        <v>261274</v>
       </c>
       <c r="K333" s="0" t="n">
-        <v>328602</v>
+        <v>328061</v>
       </c>
       <c r="L333" s="0" t="n">
-        <v>397702</v>
+        <v>397132</v>
       </c>
       <c r="M333" s="0" t="n">
-        <v>468726</v>
+        <v>468228</v>
       </c>
       <c r="N333" s="0" t="n">
-        <v>541255</v>
+        <v>540884</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15593,28 +15593,28 @@
         <v>63247</v>
       </c>
       <c r="G334" s="0" t="n">
-        <v>96464</v>
+        <v>96268</v>
       </c>
       <c r="H334" s="0" t="n">
-        <v>184998</v>
+        <v>184466</v>
       </c>
       <c r="I334" s="0" t="n">
-        <v>274760</v>
+        <v>274208</v>
       </c>
       <c r="J334" s="0" t="n">
-        <v>369502</v>
+        <v>368976</v>
       </c>
       <c r="K334" s="0" t="n">
-        <v>468342</v>
+        <v>467884</v>
       </c>
       <c r="L334" s="0" t="n">
-        <v>570226</v>
+        <v>569932</v>
       </c>
       <c r="M334" s="0" t="n">
-        <v>674977</v>
+        <v>674808</v>
       </c>
       <c r="N334" s="0" t="n">
-        <v>782360</v>
+        <v>782178</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15637,28 +15637,28 @@
         <v>71381</v>
       </c>
       <c r="G335" s="0" t="n">
-        <v>31912</v>
+        <v>31895</v>
       </c>
       <c r="H335" s="0" t="n">
-        <v>71122</v>
+        <v>71099</v>
       </c>
       <c r="I335" s="0" t="n">
-        <v>112547</v>
+        <v>112560</v>
       </c>
       <c r="J335" s="0" t="n">
-        <v>154754</v>
+        <v>154873</v>
       </c>
       <c r="K335" s="0" t="n">
-        <v>197285</v>
+        <v>197502</v>
       </c>
       <c r="L335" s="0" t="n">
-        <v>240253</v>
+        <v>240526</v>
       </c>
       <c r="M335" s="0" t="n">
-        <v>283646</v>
+        <v>283989</v>
       </c>
       <c r="N335" s="0" t="n">
-        <v>327606</v>
+        <v>327985</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15681,28 +15681,28 @@
         <v>71381</v>
       </c>
       <c r="G336" s="0" t="n">
-        <v>65203</v>
+        <v>65165</v>
       </c>
       <c r="H336" s="0" t="n">
-        <v>142393</v>
+        <v>142476</v>
       </c>
       <c r="I336" s="0" t="n">
-        <v>221418</v>
+        <v>221641</v>
       </c>
       <c r="J336" s="0" t="n">
-        <v>301873</v>
+        <v>302236</v>
       </c>
       <c r="K336" s="0" t="n">
-        <v>385033</v>
+        <v>385410</v>
       </c>
       <c r="L336" s="0" t="n">
-        <v>473493</v>
+        <v>473820</v>
       </c>
       <c r="M336" s="0" t="n">
-        <v>569601</v>
+        <v>569880</v>
       </c>
       <c r="N336" s="0" t="n">
-        <v>675954</v>
+        <v>676223</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15725,28 +15725,28 @@
         <v>71381</v>
       </c>
       <c r="G337" s="0" t="n">
-        <v>100319</v>
+        <v>100306</v>
       </c>
       <c r="H337" s="0" t="n">
-        <v>215138</v>
+        <v>215359</v>
       </c>
       <c r="I337" s="0" t="n">
-        <v>333156</v>
+        <v>333536</v>
       </c>
       <c r="J337" s="0" t="n">
-        <v>459147</v>
+        <v>459461</v>
       </c>
       <c r="K337" s="0" t="n">
-        <v>600673</v>
+        <v>600946</v>
       </c>
       <c r="L337" s="0" t="n">
-        <v>765239</v>
+        <v>765467</v>
       </c>
       <c r="M337" s="0" t="n">
-        <v>956058</v>
+        <v>956331</v>
       </c>
       <c r="N337" s="0" t="n">
-        <v>1133037</v>
+        <v>1132494</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15772,25 +15772,25 @@
         <v>8</v>
       </c>
       <c r="H338" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I338" s="0" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J338" s="0" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K338" s="0" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="L338" s="0" t="n">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="M338" s="0" t="n">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="N338" s="0" t="n">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15816,22 +15816,22 @@
         <v>18</v>
       </c>
       <c r="H339" s="0" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I339" s="0" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="J339" s="0" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K339" s="0" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L339" s="0" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M339" s="0" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="N339" s="0" t="n">
         <v>423</v>
@@ -15860,16 +15860,16 @@
         <v>29</v>
       </c>
       <c r="H340" s="0" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I340" s="0" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J340" s="0" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K340" s="0" t="n">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L340" s="0" t="n">
         <v>423</v>
@@ -16033,28 +16033,28 @@
         <v>7206</v>
       </c>
       <c r="G344" s="0" t="n">
-        <v>4182</v>
+        <v>4171</v>
       </c>
       <c r="H344" s="0" t="n">
-        <v>9337</v>
+        <v>9352</v>
       </c>
       <c r="I344" s="0" t="n">
-        <v>15411</v>
+        <v>15457</v>
       </c>
       <c r="J344" s="0" t="n">
-        <v>22188</v>
+        <v>22263</v>
       </c>
       <c r="K344" s="0" t="n">
-        <v>29569</v>
+        <v>29650</v>
       </c>
       <c r="L344" s="0" t="n">
-        <v>37418</v>
+        <v>37486</v>
       </c>
       <c r="M344" s="0" t="n">
-        <v>45606</v>
+        <v>45658</v>
       </c>
       <c r="N344" s="0" t="n">
-        <v>54113</v>
+        <v>54151</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16077,25 +16077,25 @@
         <v>7206</v>
       </c>
       <c r="G345" s="0" t="n">
-        <v>6832</v>
+        <v>6827</v>
       </c>
       <c r="H345" s="0" t="n">
-        <v>15878</v>
+        <v>15929</v>
       </c>
       <c r="I345" s="0" t="n">
-        <v>26624</v>
+        <v>26703</v>
       </c>
       <c r="J345" s="0" t="n">
-        <v>38588</v>
+        <v>38654</v>
       </c>
       <c r="K345" s="0" t="n">
-        <v>51368</v>
+        <v>51410</v>
       </c>
       <c r="L345" s="0" t="n">
-        <v>65048</v>
+        <v>65052</v>
       </c>
       <c r="M345" s="0" t="n">
-        <v>80639</v>
+        <v>80629</v>
       </c>
       <c r="N345" s="0" t="n">
         <v>90093</v>
@@ -16121,19 +16121,19 @@
         <v>7206</v>
       </c>
       <c r="G346" s="0" t="n">
-        <v>9754</v>
+        <v>9769</v>
       </c>
       <c r="H346" s="0" t="n">
-        <v>23230</v>
+        <v>23306</v>
       </c>
       <c r="I346" s="0" t="n">
-        <v>39177</v>
+        <v>39244</v>
       </c>
       <c r="J346" s="0" t="n">
-        <v>56658</v>
+        <v>56689</v>
       </c>
       <c r="K346" s="0" t="n">
-        <v>76346</v>
+        <v>76342</v>
       </c>
       <c r="L346" s="0" t="n">
         <v>90093</v>
@@ -16165,28 +16165,28 @@
         <v>45144</v>
       </c>
       <c r="G347" s="0" t="n">
-        <v>28826</v>
+        <v>28594</v>
       </c>
       <c r="H347" s="0" t="n">
-        <v>61928</v>
+        <v>61626</v>
       </c>
       <c r="I347" s="0" t="n">
-        <v>97260</v>
+        <v>96998</v>
       </c>
       <c r="J347" s="0" t="n">
-        <v>134481</v>
+        <v>134266</v>
       </c>
       <c r="K347" s="0" t="n">
-        <v>173204</v>
+        <v>173043</v>
       </c>
       <c r="L347" s="0" t="n">
-        <v>213327</v>
+        <v>213198</v>
       </c>
       <c r="M347" s="0" t="n">
-        <v>254733</v>
+        <v>254624</v>
       </c>
       <c r="N347" s="0" t="n">
-        <v>297343</v>
+        <v>297236</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16209,28 +16209,28 @@
         <v>45144</v>
       </c>
       <c r="G348" s="0" t="n">
-        <v>44233</v>
+        <v>43952</v>
       </c>
       <c r="H348" s="0" t="n">
-        <v>95446</v>
+        <v>95174</v>
       </c>
       <c r="I348" s="0" t="n">
-        <v>150754</v>
+        <v>150574</v>
       </c>
       <c r="J348" s="0" t="n">
-        <v>209254</v>
+        <v>209119</v>
       </c>
       <c r="K348" s="0" t="n">
-        <v>270576</v>
+        <v>270474</v>
       </c>
       <c r="L348" s="0" t="n">
-        <v>334488</v>
+        <v>334395</v>
       </c>
       <c r="M348" s="0" t="n">
-        <v>401160</v>
+        <v>401088</v>
       </c>
       <c r="N348" s="0" t="n">
-        <v>471790</v>
+        <v>471925</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16253,22 +16253,22 @@
         <v>45144</v>
       </c>
       <c r="G349" s="0" t="n">
-        <v>60222</v>
+        <v>59915</v>
       </c>
       <c r="H349" s="0" t="n">
-        <v>130695</v>
+        <v>130468</v>
       </c>
       <c r="I349" s="0" t="n">
-        <v>207230</v>
+        <v>207088</v>
       </c>
       <c r="J349" s="0" t="n">
-        <v>288740</v>
+        <v>288629</v>
       </c>
       <c r="K349" s="0" t="n">
-        <v>374803</v>
+        <v>374709</v>
       </c>
       <c r="L349" s="0" t="n">
-        <v>466946</v>
+        <v>466811</v>
       </c>
       <c r="M349" s="0" t="n">
         <v>600949</v>
@@ -16300,7 +16300,7 @@
         <v>498</v>
       </c>
       <c r="H350" s="0" t="n">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="I350" s="0" t="n">
         <v>1509</v>
@@ -16312,7 +16312,7 @@
         <v>2574</v>
       </c>
       <c r="L350" s="0" t="n">
-        <v>3108</v>
+        <v>3107</v>
       </c>
       <c r="M350" s="0" t="n">
         <v>3645</v>
@@ -16341,10 +16341,10 @@
         <v>953</v>
       </c>
       <c r="G351" s="0" t="n">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="H351" s="0" t="n">
-        <v>2581</v>
+        <v>2580</v>
       </c>
       <c r="I351" s="0" t="n">
         <v>3925</v>
@@ -16385,10 +16385,10 @@
         <v>953</v>
       </c>
       <c r="G352" s="0" t="n">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="H352" s="0" t="n">
-        <v>4201</v>
+        <v>4199</v>
       </c>
       <c r="I352" s="0" t="n">
         <v>5077</v>
@@ -16561,22 +16561,22 @@
         <v>86024</v>
       </c>
       <c r="G356" s="0" t="n">
-        <v>73018</v>
+        <v>73415</v>
       </c>
       <c r="H356" s="0" t="n">
-        <v>154415</v>
+        <v>154246</v>
       </c>
       <c r="I356" s="0" t="n">
-        <v>242527</v>
+        <v>241400</v>
       </c>
       <c r="J356" s="0" t="n">
-        <v>336360</v>
+        <v>334472</v>
       </c>
       <c r="K356" s="0" t="n">
-        <v>436704</v>
+        <v>434869</v>
       </c>
       <c r="L356" s="0" t="n">
-        <v>547962</v>
+        <v>546964</v>
       </c>
       <c r="M356" s="0" t="n">
         <v>668067</v>
@@ -16605,19 +16605,19 @@
         <v>86024</v>
       </c>
       <c r="G357" s="0" t="n">
-        <v>91774</v>
+        <v>92045</v>
       </c>
       <c r="H357" s="0" t="n">
-        <v>196069</v>
+        <v>195466</v>
       </c>
       <c r="I357" s="0" t="n">
-        <v>309686</v>
+        <v>307935</v>
       </c>
       <c r="J357" s="0" t="n">
-        <v>432798</v>
+        <v>430900</v>
       </c>
       <c r="K357" s="0" t="n">
-        <v>572372</v>
+        <v>571546</v>
       </c>
       <c r="L357" s="0" t="n">
         <v>668067</v>
@@ -16649,16 +16649,16 @@
         <v>86024</v>
       </c>
       <c r="G358" s="0" t="n">
-        <v>111142</v>
+        <v>111281</v>
       </c>
       <c r="H358" s="0" t="n">
-        <v>239118</v>
+        <v>238010</v>
       </c>
       <c r="I358" s="0" t="n">
-        <v>379920</v>
+        <v>377916</v>
       </c>
       <c r="J358" s="0" t="n">
-        <v>539085</v>
+        <v>537973</v>
       </c>
       <c r="K358" s="0" t="n">
         <v>668067</v>
